--- a/src/test/resources/Run_Manager_Manual_Renewal.xlsx
+++ b/src/test/resources/Run_Manager_Manual_Renewal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E690B87D-7852-4BDC-B26F-02218E981FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287AAA2B-F621-4392-B401-3350E0C35EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="1029">
   <si>
     <t>P_Key</t>
   </si>
@@ -2426,177 +2426,33 @@
     <t>Precondition</t>
   </si>
   <si>
-    <t>WEB_TC_01</t>
-  </si>
-  <si>
-    <t>WEB_TC_02</t>
-  </si>
-  <si>
-    <t>WEB_TC_03</t>
-  </si>
-  <si>
-    <t>WEB_TC_04</t>
-  </si>
-  <si>
-    <t>WEB_TC_05</t>
-  </si>
-  <si>
-    <t>WEB_TC_06</t>
-  </si>
-  <si>
-    <t>WEB_TC_07</t>
-  </si>
-  <si>
-    <t>WEB_TC_08</t>
-  </si>
-  <si>
-    <t>WEB_TC_09</t>
-  </si>
-  <si>
-    <t>WEB_TC_10</t>
-  </si>
-  <si>
-    <t>WEB_TC_11</t>
-  </si>
-  <si>
-    <t>WEB_TC_12</t>
-  </si>
-  <si>
-    <t>WEB_TC_13</t>
-  </si>
-  <si>
-    <t>WEB_TC_14</t>
-  </si>
-  <si>
-    <t>WEB_TC_15</t>
-  </si>
-  <si>
-    <t>WEB_TC_16</t>
-  </si>
-  <si>
-    <t>WEB_TC_17</t>
-  </si>
-  <si>
-    <t>WEB_TC_18</t>
-  </si>
-  <si>
-    <t>WEB_TC_19</t>
-  </si>
-  <si>
-    <t>WEB_TC_20</t>
-  </si>
-  <si>
-    <t>WEB_TC_21</t>
-  </si>
-  <si>
-    <t>WEB_TC_22</t>
-  </si>
-  <si>
-    <t>WEB_TC_23</t>
-  </si>
-  <si>
-    <t>WEB_TC_24</t>
-  </si>
-  <si>
-    <t>WEB_TC_25</t>
-  </si>
-  <si>
-    <t>WEB_TC_26</t>
-  </si>
-  <si>
-    <t>WEB_TC_27</t>
-  </si>
-  <si>
-    <t>WEB_TC_28</t>
-  </si>
-  <si>
-    <t>WEB_TC_29</t>
-  </si>
-  <si>
-    <t>WEB_TC_30</t>
-  </si>
-  <si>
-    <t>WEB_TC_31</t>
-  </si>
-  <si>
-    <t>WEB_TC_32</t>
-  </si>
-  <si>
-    <t>WEB_TC_33</t>
-  </si>
-  <si>
-    <t>WEB_TC_34</t>
-  </si>
-  <si>
-    <t>WEB_TC_35</t>
-  </si>
-  <si>
-    <t>WEB_TC_36</t>
-  </si>
-  <si>
     <t>AwqafResidentialSubleaseContractMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_37</t>
-  </si>
-  <si>
     <t>ApproveAwqafResidentialSubleaseByLessorMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_38</t>
-  </si>
-  <si>
     <t>ApproveAwqafResidentialSubleaseByTenantMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_39</t>
-  </si>
-  <si>
     <t>AwqafResidentialSubleaseContractLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_40</t>
-  </si>
-  <si>
     <t>ApproveAwqafResidentialSubleaseByLesserLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_41</t>
-  </si>
-  <si>
     <t>ApproveAwqafResidentialSubleaseByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_42</t>
-  </si>
-  <si>
-    <t>WEB_TC_43</t>
-  </si>
-  <si>
-    <t>WEB_TC_44</t>
-  </si>
-  <si>
-    <t>WEB_TC_45</t>
-  </si>
-  <si>
     <t>AwqafCommercialSubleaseContractLessThan3Month</t>
   </si>
   <si>
-    <t>WEB_TC_46</t>
-  </si>
-  <si>
     <t>AwqafApproveCommercialSubleaseByLessorLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_47</t>
-  </si>
-  <si>
     <t>AwqafApproveCommercialSubleaseByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_48</t>
-  </si>
-  <si>
     <t>Module 2</t>
   </si>
   <si>
@@ -2631,6 +2487,780 @@
   </si>
   <si>
     <t>Module 13</t>
+  </si>
+  <si>
+    <t>Contracts_TC_01</t>
+  </si>
+  <si>
+    <t>Contracts_TC_02</t>
+  </si>
+  <si>
+    <t>Contracts_TC_03</t>
+  </si>
+  <si>
+    <t>Contracts_TC_04</t>
+  </si>
+  <si>
+    <t>Contracts_TC_05</t>
+  </si>
+  <si>
+    <t>Contracts_TC_06</t>
+  </si>
+  <si>
+    <t>Contracts_TC_07</t>
+  </si>
+  <si>
+    <t>Contracts_TC_08</t>
+  </si>
+  <si>
+    <t>Contracts_TC_09</t>
+  </si>
+  <si>
+    <t>Contracts_TC_10</t>
+  </si>
+  <si>
+    <t>Contracts_TC_11</t>
+  </si>
+  <si>
+    <t>Contracts_TC_12</t>
+  </si>
+  <si>
+    <t>Contracts_TC_13</t>
+  </si>
+  <si>
+    <t>Contracts_TC_14</t>
+  </si>
+  <si>
+    <t>Contracts_TC_15</t>
+  </si>
+  <si>
+    <t>Contracts_TC_16</t>
+  </si>
+  <si>
+    <t>Contracts_TC_17</t>
+  </si>
+  <si>
+    <t>Contracts_TC_18</t>
+  </si>
+  <si>
+    <t>Contracts_TC_19</t>
+  </si>
+  <si>
+    <t>Contracts_TC_20</t>
+  </si>
+  <si>
+    <t>Contracts_TC_21</t>
+  </si>
+  <si>
+    <t>Contracts_TC_22</t>
+  </si>
+  <si>
+    <t>Contracts_TC_23</t>
+  </si>
+  <si>
+    <t>Contracts_TC_24</t>
+  </si>
+  <si>
+    <t>Contracts_TC_25</t>
+  </si>
+  <si>
+    <t>Contracts_TC_26</t>
+  </si>
+  <si>
+    <t>Contracts_TC_27</t>
+  </si>
+  <si>
+    <t>Contracts_TC_28</t>
+  </si>
+  <si>
+    <t>Contracts_TC_29</t>
+  </si>
+  <si>
+    <t>Contracts_TC_30</t>
+  </si>
+  <si>
+    <t>Contracts_TC_31</t>
+  </si>
+  <si>
+    <t>Contracts_TC_32</t>
+  </si>
+  <si>
+    <t>Contracts_TC_33</t>
+  </si>
+  <si>
+    <t>Contracts_TC_34</t>
+  </si>
+  <si>
+    <t>Contracts_TC_35</t>
+  </si>
+  <si>
+    <t>Contracts_TC_36</t>
+  </si>
+  <si>
+    <t>Contracts_TC_37</t>
+  </si>
+  <si>
+    <t>Contracts_TC_38</t>
+  </si>
+  <si>
+    <t>Contracts_TC_39</t>
+  </si>
+  <si>
+    <t>Contracts_TC_40</t>
+  </si>
+  <si>
+    <t>Contracts_TC_41</t>
+  </si>
+  <si>
+    <t>Contracts_TC_42</t>
+  </si>
+  <si>
+    <t>Contracts_TC_43</t>
+  </si>
+  <si>
+    <t>Contracts_TC_44</t>
+  </si>
+  <si>
+    <t>Contracts_TC_45</t>
+  </si>
+  <si>
+    <t>Contracts_TC_46</t>
+  </si>
+  <si>
+    <t>Contracts_TC_47</t>
+  </si>
+  <si>
+    <t>Contracts_TC_48</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_01</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_02</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_03</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_04</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_05</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_06</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_07</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_08</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_09</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_10</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_11</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_12</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_13</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_14</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_15</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_16</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_17</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_18</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_19</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_20</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_21</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_22</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_23</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_24</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_25</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_26</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_27</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_28</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_29</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_30</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_31</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_32</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_33</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_34</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_35</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_36</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_37</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_38</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_39</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_40</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_41</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_42</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_43</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_44</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_45</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_46</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_47</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_48</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_49</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_50</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_51</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_52</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_53</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_54</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_55</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_56</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_57</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_58</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_59</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_60</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_61</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_62</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_63</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_64</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_65</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_66</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_67</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_68</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_69</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_70</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_71</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_72</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_73</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_74</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_75</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_76</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_77</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_78</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_79</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_80</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_81</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_82</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_83</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_84</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_85</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_86</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_87</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_88</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_89</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_90</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_91</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_92</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_93</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_94</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_95</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_96</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_97</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_98</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_99</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_100</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_101</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_102</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_103</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_104</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_105</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_106</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_107</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_108</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_109</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_110</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_111</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_112</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_113</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_114</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_115</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_116</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_117</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_118</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_119</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_120</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_121</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_122</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_123</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_124</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_125</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_126</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_127</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_128</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_129</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_130</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_131</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_132</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_133</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_134</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_135</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_136</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_137</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_138</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_139</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_140</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_141</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_142</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_143</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_144</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_145</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_146</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_147</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_148</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_149</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_150</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_151</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_152</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_153</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_154</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_155</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_156</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_157</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_158</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_159</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_160</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_161</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_162</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_163</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_164</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_165</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_166</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_167</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_168</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_169</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_170</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_171</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_172</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_173</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_174</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_175</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_176</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_177</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_178</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_179</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_180</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_181</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_182</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_183</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_184</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_185</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_186</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_187</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_188</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_189</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_190</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_191</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_192</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_193</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_194</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_195</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_196</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_197</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_198</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_199</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_200</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_201</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_202</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_203</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_204</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_205</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_206</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_207</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_208</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_209</t>
+  </si>
+  <si>
+    <t>ManualRenewal_TC_210</t>
   </si>
 </sst>
 </file>
@@ -3088,7 +3718,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3282,18 +3912,6 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3306,38 +3924,22 @@
     <xf numFmtId="0" fontId="18" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBCE997"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -3852,11 +4454,11 @@
   <dimension ref="A1:M274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B202" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B252" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="L275" sqref="L275"/>
+      <selection pane="bottomRight" activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3865,8 +4467,8 @@
     <col min="2" max="3" width="41" style="2" customWidth="1"/>
     <col min="4" max="4" width="88.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="51.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -3966,7 +4568,7 @@
         <v>265</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>246</v>
@@ -4005,7 +4607,7 @@
         <v>292</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>246</v>
@@ -4044,7 +4646,7 @@
         <v>293</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>246</v>
@@ -4083,7 +4685,7 @@
         <v>265</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>246</v>
@@ -4122,7 +4724,7 @@
         <v>292</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>246</v>
@@ -4161,7 +4763,7 @@
         <v>293</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
       <c r="H8" s="38" t="s">
         <v>246</v>
@@ -4200,7 +4802,7 @@
         <v>308</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>246</v>
@@ -4239,7 +4841,7 @@
         <v>311</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>246</v>
@@ -4278,7 +4880,7 @@
         <v>314</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>246</v>
@@ -4317,7 +4919,7 @@
         <v>308</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>246</v>
@@ -4356,7 +4958,7 @@
         <v>311</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>246</v>
@@ -4395,7 +4997,7 @@
         <v>314</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>246</v>
@@ -4434,7 +5036,7 @@
         <v>321</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>246</v>
@@ -4473,7 +5075,7 @@
         <v>324</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>246</v>
@@ -4512,7 +5114,7 @@
         <v>327</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>246</v>
@@ -4551,7 +5153,7 @@
         <v>321</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>246</v>
@@ -4590,7 +5192,7 @@
         <v>324</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>246</v>
@@ -4629,7 +5231,7 @@
         <v>327</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>246</v>
@@ -4668,7 +5270,7 @@
         <v>321</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>246</v>
@@ -4707,7 +5309,7 @@
         <v>324</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>246</v>
@@ -4746,7 +5348,7 @@
         <v>327</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>246</v>
@@ -4785,7 +5387,7 @@
         <v>321</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>246</v>
@@ -4824,7 +5426,7 @@
         <v>324</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>246</v>
@@ -4863,7 +5465,7 @@
         <v>327</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>246</v>
@@ -4902,7 +5504,7 @@
         <v>344</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>246</v>
@@ -4941,7 +5543,7 @@
         <v>347</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>246</v>
@@ -4980,7 +5582,7 @@
         <v>350</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>246</v>
@@ -5019,7 +5621,7 @@
         <v>344</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>246</v>
@@ -5058,7 +5660,7 @@
         <v>347</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>246</v>
@@ -5097,7 +5699,7 @@
         <v>350</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>246</v>
@@ -5136,7 +5738,7 @@
         <v>344</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>246</v>
@@ -5175,7 +5777,7 @@
         <v>347</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="H34" s="38" t="s">
         <v>246</v>
@@ -5214,7 +5816,7 @@
         <v>350</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="H35" s="38" t="s">
         <v>246</v>
@@ -5253,7 +5855,7 @@
         <v>344</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>246</v>
@@ -5292,7 +5894,7 @@
         <v>347</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>246</v>
@@ -5331,7 +5933,7 @@
         <v>350</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="H38" s="38" t="s">
         <v>246</v>
@@ -5364,13 +5966,13 @@
         <v>285</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>786</v>
+        <v>750</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>371</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>246</v>
@@ -5403,13 +6005,13 @@
         <v>366</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>788</v>
+        <v>751</v>
       </c>
       <c r="F40" s="41" t="s">
         <v>374</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>246</v>
@@ -5442,13 +6044,13 @@
         <v>367</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>790</v>
+        <v>752</v>
       </c>
       <c r="F41" s="41" t="s">
         <v>377</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>246</v>
@@ -5481,13 +6083,13 @@
         <v>286</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>792</v>
+        <v>753</v>
       </c>
       <c r="F42" s="41" t="s">
         <v>371</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>246</v>
@@ -5520,13 +6122,13 @@
         <v>368</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>794</v>
+        <v>754</v>
       </c>
       <c r="F43" s="41" t="s">
         <v>374</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>246</v>
@@ -5559,13 +6161,13 @@
         <v>369</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>796</v>
+        <v>755</v>
       </c>
       <c r="F44" s="41" t="s">
         <v>377</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>246</v>
@@ -5604,7 +6206,7 @@
         <v>371</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>246</v>
@@ -5643,7 +6245,7 @@
         <v>374</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="H46" s="38" t="s">
         <v>246</v>
@@ -5682,7 +6284,7 @@
         <v>377</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="H47" s="38" t="s">
         <v>246</v>
@@ -5715,13 +6317,13 @@
         <v>288</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>801</v>
+        <v>756</v>
       </c>
       <c r="F48" s="41" t="s">
         <v>371</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>246</v>
@@ -5754,13 +6356,13 @@
         <v>378</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="F49" s="41" t="s">
         <v>374</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>246</v>
@@ -5793,13 +6395,13 @@
         <v>379</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>805</v>
+        <v>758</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>377</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="H50" s="38" t="s">
         <v>246</v>
@@ -5847,13 +6449,13 @@
       <c r="A52" s="40">
         <v>49</v>
       </c>
-      <c r="B52" s="87" t="s">
-        <v>390</v>
-      </c>
-      <c r="C52" s="87" t="s">
+      <c r="B52" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="C52" s="83" t="s">
         <v>732</v>
       </c>
-      <c r="D52" s="87" t="s">
+      <c r="D52" s="83" t="s">
         <v>732</v>
       </c>
       <c r="E52" s="41" t="s">
@@ -5863,7 +6465,7 @@
         <v>398</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>724</v>
+        <v>819</v>
       </c>
       <c r="H52" s="38" t="s">
         <v>246</v>
@@ -5874,13 +6476,13 @@
       <c r="J52" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K52" s="86">
+      <c r="K52" s="38">
         <v>1</v>
       </c>
       <c r="L52" s="68">
         <v>49</v>
       </c>
-      <c r="M52" s="87"/>
+      <c r="M52" s="83"/>
     </row>
     <row r="53" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
@@ -5902,7 +6504,7 @@
         <v>393</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>392</v>
+        <v>820</v>
       </c>
       <c r="H53" s="38" t="s">
         <v>246</v>
@@ -5913,7 +6515,7 @@
       <c r="J53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K53" s="86">
+      <c r="K53" s="38">
         <v>1</v>
       </c>
       <c r="L53" s="68">
@@ -5940,7 +6542,7 @@
         <v>393</v>
       </c>
       <c r="G54" s="41" t="s">
-        <v>395</v>
+        <v>821</v>
       </c>
       <c r="H54" s="38" t="s">
         <v>246</v>
@@ -5951,7 +6553,7 @@
       <c r="J54" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K54" s="86">
+      <c r="K54" s="38">
         <v>1</v>
       </c>
       <c r="L54" s="68">
@@ -5978,7 +6580,7 @@
         <v>393</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>397</v>
+        <v>822</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>246</v>
@@ -5989,7 +6591,7 @@
       <c r="J55" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K55" s="86">
+      <c r="K55" s="38">
         <v>1</v>
       </c>
       <c r="L55" s="68">
@@ -6016,7 +6618,7 @@
         <v>393</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>400</v>
+        <v>823</v>
       </c>
       <c r="H56" s="38" t="s">
         <v>246</v>
@@ -6027,7 +6629,7 @@
       <c r="J56" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K56" s="86">
+      <c r="K56" s="38">
         <v>1</v>
       </c>
       <c r="L56" s="68">
@@ -6054,7 +6656,7 @@
         <v>393</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>402</v>
+        <v>824</v>
       </c>
       <c r="H57" s="38" t="s">
         <v>246</v>
@@ -6065,7 +6667,7 @@
       <c r="J57" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K57" s="86">
+      <c r="K57" s="38">
         <v>1</v>
       </c>
       <c r="L57" s="68">
@@ -6092,7 +6694,7 @@
         <v>393</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>404</v>
+        <v>825</v>
       </c>
       <c r="H58" s="38" t="s">
         <v>246</v>
@@ -6103,7 +6705,7 @@
       <c r="J58" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K58" s="86">
+      <c r="K58" s="38">
         <v>1</v>
       </c>
       <c r="L58" s="68">
@@ -6130,7 +6732,7 @@
         <v>393</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>406</v>
+        <v>826</v>
       </c>
       <c r="H59" s="38" t="s">
         <v>246</v>
@@ -6141,7 +6743,7 @@
       <c r="J59" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="86">
+      <c r="K59" s="38">
         <v>1</v>
       </c>
       <c r="L59" s="68">
@@ -6168,7 +6770,7 @@
         <v>393</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>408</v>
+        <v>827</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>246</v>
@@ -6179,7 +6781,7 @@
       <c r="J60" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K60" s="86">
+      <c r="K60" s="38">
         <v>1</v>
       </c>
       <c r="L60" s="68">
@@ -6206,7 +6808,7 @@
         <v>393</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>410</v>
+        <v>828</v>
       </c>
       <c r="H61" s="38" t="s">
         <v>246</v>
@@ -6217,7 +6819,7 @@
       <c r="J61" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K61" s="86">
+      <c r="K61" s="38">
         <v>1</v>
       </c>
       <c r="L61" s="68">
@@ -6244,7 +6846,7 @@
         <v>393</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>412</v>
+        <v>829</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>246</v>
@@ -6255,7 +6857,7 @@
       <c r="J62" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K62" s="86">
+      <c r="K62" s="38">
         <v>1</v>
       </c>
       <c r="L62" s="68">
@@ -6282,7 +6884,7 @@
         <v>393</v>
       </c>
       <c r="G63" s="41" t="s">
-        <v>414</v>
+        <v>830</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>246</v>
@@ -6293,7 +6895,7 @@
       <c r="J63" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K63" s="86">
+      <c r="K63" s="38">
         <v>1</v>
       </c>
       <c r="L63" s="68">
@@ -6320,7 +6922,7 @@
         <v>393</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>418</v>
+        <v>831</v>
       </c>
       <c r="H64" s="38" t="s">
         <v>246</v>
@@ -6331,7 +6933,7 @@
       <c r="J64" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K64" s="86">
+      <c r="K64" s="38">
         <v>1</v>
       </c>
       <c r="L64" s="68">
@@ -6358,7 +6960,7 @@
         <v>393</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>420</v>
+        <v>832</v>
       </c>
       <c r="H65" s="38" t="s">
         <v>246</v>
@@ -6369,7 +6971,7 @@
       <c r="J65" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="86">
+      <c r="K65" s="38">
         <v>1</v>
       </c>
       <c r="L65" s="68">
@@ -6396,7 +6998,7 @@
         <v>393</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>422</v>
+        <v>833</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>246</v>
@@ -6407,7 +7009,7 @@
       <c r="J66" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K66" s="86">
+      <c r="K66" s="38">
         <v>1</v>
       </c>
       <c r="L66" s="68">
@@ -6434,7 +7036,7 @@
         <v>393</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>424</v>
+        <v>834</v>
       </c>
       <c r="H67" s="38" t="s">
         <v>246</v>
@@ -6445,7 +7047,7 @@
       <c r="J67" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="86">
+      <c r="K67" s="38">
         <v>1</v>
       </c>
       <c r="L67" s="68">
@@ -6472,7 +7074,7 @@
         <v>393</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>426</v>
+        <v>835</v>
       </c>
       <c r="H68" s="38" t="s">
         <v>246</v>
@@ -6483,7 +7085,7 @@
       <c r="J68" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="86">
+      <c r="K68" s="38">
         <v>1</v>
       </c>
       <c r="L68" s="68">
@@ -6510,7 +7112,7 @@
         <v>393</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>428</v>
+        <v>836</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>246</v>
@@ -6521,7 +7123,7 @@
       <c r="J69" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K69" s="86">
+      <c r="K69" s="38">
         <v>1</v>
       </c>
       <c r="L69" s="68">
@@ -6548,7 +7150,7 @@
         <v>393</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>430</v>
+        <v>837</v>
       </c>
       <c r="H70" s="38" t="s">
         <v>246</v>
@@ -6559,7 +7161,7 @@
       <c r="J70" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K70" s="86">
+      <c r="K70" s="38">
         <v>1</v>
       </c>
       <c r="L70" s="68">
@@ -6586,7 +7188,7 @@
         <v>393</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>432</v>
+        <v>838</v>
       </c>
       <c r="H71" s="38" t="s">
         <v>246</v>
@@ -6597,7 +7199,7 @@
       <c r="J71" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K71" s="86">
+      <c r="K71" s="38">
         <v>1</v>
       </c>
       <c r="L71" s="68">
@@ -6624,7 +7226,7 @@
         <v>393</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>434</v>
+        <v>839</v>
       </c>
       <c r="H72" s="38" t="s">
         <v>246</v>
@@ -6635,7 +7237,7 @@
       <c r="J72" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K72" s="86">
+      <c r="K72" s="38">
         <v>1</v>
       </c>
       <c r="L72" s="68">
@@ -6662,7 +7264,7 @@
         <v>393</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>436</v>
+        <v>840</v>
       </c>
       <c r="H73" s="38" t="s">
         <v>246</v>
@@ -6673,7 +7275,7 @@
       <c r="J73" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K73" s="86">
+      <c r="K73" s="38">
         <v>1</v>
       </c>
       <c r="L73" s="68">
@@ -6700,7 +7302,7 @@
         <v>393</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>438</v>
+        <v>841</v>
       </c>
       <c r="H74" s="38" t="s">
         <v>246</v>
@@ -6711,7 +7313,7 @@
       <c r="J74" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="86">
+      <c r="K74" s="38">
         <v>1</v>
       </c>
       <c r="L74" s="68">
@@ -6738,7 +7340,7 @@
         <v>393</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>440</v>
+        <v>842</v>
       </c>
       <c r="H75" s="38" t="s">
         <v>246</v>
@@ -6749,7 +7351,7 @@
       <c r="J75" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="86">
+      <c r="K75" s="38">
         <v>1</v>
       </c>
       <c r="L75" s="68">
@@ -6776,7 +7378,7 @@
         <v>393</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>442</v>
+        <v>843</v>
       </c>
       <c r="H76" s="38" t="s">
         <v>246</v>
@@ -6787,7 +7389,7 @@
       <c r="J76" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K76" s="86">
+      <c r="K76" s="38">
         <v>1</v>
       </c>
       <c r="L76" s="68">
@@ -6814,7 +7416,7 @@
         <v>393</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>444</v>
+        <v>844</v>
       </c>
       <c r="H77" s="38" t="s">
         <v>246</v>
@@ -6825,7 +7427,7 @@
       <c r="J77" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K77" s="86">
+      <c r="K77" s="38">
         <v>1</v>
       </c>
       <c r="L77" s="68">
@@ -6852,7 +7454,7 @@
         <v>393</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>446</v>
+        <v>845</v>
       </c>
       <c r="H78" s="38" t="s">
         <v>246</v>
@@ -6863,7 +7465,7 @@
       <c r="J78" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K78" s="86">
+      <c r="K78" s="38">
         <v>1</v>
       </c>
       <c r="L78" s="68">
@@ -6890,7 +7492,7 @@
         <v>393</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>448</v>
+        <v>846</v>
       </c>
       <c r="H79" s="38" t="s">
         <v>246</v>
@@ -6901,7 +7503,7 @@
       <c r="J79" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K79" s="86">
+      <c r="K79" s="38">
         <v>1</v>
       </c>
       <c r="L79" s="68">
@@ -6928,7 +7530,7 @@
         <v>393</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>450</v>
+        <v>847</v>
       </c>
       <c r="H80" s="38" t="s">
         <v>246</v>
@@ -6939,7 +7541,7 @@
       <c r="J80" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K80" s="86">
+      <c r="K80" s="38">
         <v>1</v>
       </c>
       <c r="L80" s="68">
@@ -6966,7 +7568,7 @@
         <v>393</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>452</v>
+        <v>848</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>246</v>
@@ -6977,7 +7579,7 @@
       <c r="J81" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K81" s="86">
+      <c r="K81" s="38">
         <v>1</v>
       </c>
       <c r="L81" s="68">
@@ -6991,10 +7593,10 @@
       <c r="B82" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C82" s="87" t="s">
+      <c r="C82" s="83" t="s">
         <v>722</v>
       </c>
-      <c r="D82" s="87" t="s">
+      <c r="D82" s="83" t="s">
         <v>722</v>
       </c>
       <c r="E82" s="41" t="s">
@@ -7004,7 +7606,7 @@
         <v>709</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>703</v>
+        <v>849</v>
       </c>
       <c r="H82" s="38" t="s">
         <v>246</v>
@@ -7015,7 +7617,7 @@
       <c r="J82" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K82" s="86">
+      <c r="K82" s="38">
         <v>1</v>
       </c>
       <c r="L82" s="68">
@@ -7024,7 +7626,7 @@
     </row>
     <row r="83" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="59" t="s">
-        <v>807</v>
+        <v>759</v>
       </c>
       <c r="B83" s="44" t="s">
         <v>726</v>
@@ -7053,13 +7655,13 @@
       <c r="A84" s="40">
         <v>80</v>
       </c>
-      <c r="B84" s="87" t="s">
-        <v>390</v>
-      </c>
-      <c r="C84" s="87" t="s">
+      <c r="B84" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="C84" s="83" t="s">
         <v>732</v>
       </c>
-      <c r="D84" s="87" t="s">
+      <c r="D84" s="83" t="s">
         <v>732</v>
       </c>
       <c r="E84" s="41" t="s">
@@ -7069,7 +7671,7 @@
         <v>398</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>736</v>
+        <v>850</v>
       </c>
       <c r="H84" s="38" t="s">
         <v>246</v>
@@ -7080,13 +7682,13 @@
       <c r="J84" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="86">
+      <c r="K84" s="38">
         <v>1</v>
       </c>
       <c r="L84" s="68">
         <v>80</v>
       </c>
-      <c r="M84" s="87"/>
+      <c r="M84" s="83"/>
     </row>
     <row r="85" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
@@ -7108,7 +7710,7 @@
         <v>393</v>
       </c>
       <c r="G85" s="41" t="s">
-        <v>467</v>
+        <v>851</v>
       </c>
       <c r="H85" s="38" t="s">
         <v>246</v>
@@ -7119,7 +7721,7 @@
       <c r="J85" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K85" s="86">
+      <c r="K85" s="38">
         <v>1</v>
       </c>
       <c r="L85" s="68">
@@ -7146,7 +7748,7 @@
         <v>393</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>469</v>
+        <v>852</v>
       </c>
       <c r="H86" s="38" t="s">
         <v>246</v>
@@ -7157,7 +7759,7 @@
       <c r="J86" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="86">
+      <c r="K86" s="38">
         <v>1</v>
       </c>
       <c r="L86" s="68">
@@ -7184,7 +7786,7 @@
         <v>393</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>471</v>
+        <v>853</v>
       </c>
       <c r="H87" s="38" t="s">
         <v>246</v>
@@ -7195,7 +7797,7 @@
       <c r="J87" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="86">
+      <c r="K87" s="38">
         <v>1</v>
       </c>
       <c r="L87" s="68">
@@ -7222,7 +7824,7 @@
         <v>393</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>473</v>
+        <v>854</v>
       </c>
       <c r="H88" s="38" t="s">
         <v>246</v>
@@ -7233,7 +7835,7 @@
       <c r="J88" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K88" s="86">
+      <c r="K88" s="38">
         <v>1</v>
       </c>
       <c r="L88" s="68">
@@ -7260,7 +7862,7 @@
         <v>393</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>475</v>
+        <v>855</v>
       </c>
       <c r="H89" s="38" t="s">
         <v>246</v>
@@ -7271,7 +7873,7 @@
       <c r="J89" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K89" s="86">
+      <c r="K89" s="38">
         <v>1</v>
       </c>
       <c r="L89" s="68">
@@ -7298,7 +7900,7 @@
         <v>393</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>477</v>
+        <v>856</v>
       </c>
       <c r="H90" s="38" t="s">
         <v>246</v>
@@ -7309,7 +7911,7 @@
       <c r="J90" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K90" s="86">
+      <c r="K90" s="38">
         <v>1</v>
       </c>
       <c r="L90" s="68">
@@ -7336,7 +7938,7 @@
         <v>393</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>479</v>
+        <v>857</v>
       </c>
       <c r="H91" s="38" t="s">
         <v>246</v>
@@ -7347,7 +7949,7 @@
       <c r="J91" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K91" s="86">
+      <c r="K91" s="38">
         <v>1</v>
       </c>
       <c r="L91" s="68">
@@ -7374,7 +7976,7 @@
         <v>393</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>481</v>
+        <v>858</v>
       </c>
       <c r="H92" s="38" t="s">
         <v>246</v>
@@ -7385,7 +7987,7 @@
       <c r="J92" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K92" s="86">
+      <c r="K92" s="38">
         <v>1</v>
       </c>
       <c r="L92" s="68">
@@ -7412,7 +8014,7 @@
         <v>393</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>483</v>
+        <v>859</v>
       </c>
       <c r="H93" s="38" t="s">
         <v>246</v>
@@ -7423,7 +8025,7 @@
       <c r="J93" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K93" s="86">
+      <c r="K93" s="38">
         <v>1</v>
       </c>
       <c r="L93" s="68">
@@ -7450,7 +8052,7 @@
         <v>393</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>485</v>
+        <v>860</v>
       </c>
       <c r="H94" s="38" t="s">
         <v>246</v>
@@ -7461,7 +8063,7 @@
       <c r="J94" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K94" s="86">
+      <c r="K94" s="38">
         <v>1</v>
       </c>
       <c r="L94" s="68">
@@ -7488,7 +8090,7 @@
         <v>393</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>487</v>
+        <v>861</v>
       </c>
       <c r="H95" s="38" t="s">
         <v>246</v>
@@ -7499,7 +8101,7 @@
       <c r="J95" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K95" s="86">
+      <c r="K95" s="38">
         <v>1</v>
       </c>
       <c r="L95" s="68">
@@ -7526,7 +8128,7 @@
         <v>393</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>491</v>
+        <v>862</v>
       </c>
       <c r="H96" s="38" t="s">
         <v>246</v>
@@ -7537,7 +8139,7 @@
       <c r="J96" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K96" s="86">
+      <c r="K96" s="38">
         <v>1</v>
       </c>
       <c r="L96" s="68">
@@ -7564,7 +8166,7 @@
         <v>393</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>492</v>
+        <v>863</v>
       </c>
       <c r="H97" s="38" t="s">
         <v>246</v>
@@ -7575,7 +8177,7 @@
       <c r="J97" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K97" s="86">
+      <c r="K97" s="38">
         <v>1</v>
       </c>
       <c r="L97" s="68">
@@ -7602,7 +8204,7 @@
         <v>393</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>493</v>
+        <v>864</v>
       </c>
       <c r="H98" s="38" t="s">
         <v>246</v>
@@ -7613,7 +8215,7 @@
       <c r="J98" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K98" s="86">
+      <c r="K98" s="38">
         <v>1</v>
       </c>
       <c r="L98" s="68">
@@ -7640,7 +8242,7 @@
         <v>393</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>494</v>
+        <v>865</v>
       </c>
       <c r="H99" s="38" t="s">
         <v>246</v>
@@ -7651,7 +8253,7 @@
       <c r="J99" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K99" s="86">
+      <c r="K99" s="38">
         <v>1</v>
       </c>
       <c r="L99" s="68">
@@ -7678,7 +8280,7 @@
         <v>393</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>495</v>
+        <v>866</v>
       </c>
       <c r="H100" s="38" t="s">
         <v>246</v>
@@ -7689,7 +8291,7 @@
       <c r="J100" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K100" s="86">
+      <c r="K100" s="38">
         <v>1</v>
       </c>
       <c r="L100" s="68">
@@ -7716,7 +8318,7 @@
         <v>393</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>496</v>
+        <v>867</v>
       </c>
       <c r="H101" s="38" t="s">
         <v>246</v>
@@ -7727,7 +8329,7 @@
       <c r="J101" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K101" s="86">
+      <c r="K101" s="38">
         <v>1</v>
       </c>
       <c r="L101" s="68">
@@ -7754,7 +8356,7 @@
         <v>393</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>497</v>
+        <v>868</v>
       </c>
       <c r="H102" s="38" t="s">
         <v>246</v>
@@ -7765,7 +8367,7 @@
       <c r="J102" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K102" s="86">
+      <c r="K102" s="38">
         <v>1</v>
       </c>
       <c r="L102" s="68">
@@ -7792,7 +8394,7 @@
         <v>393</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>498</v>
+        <v>869</v>
       </c>
       <c r="H103" s="38" t="s">
         <v>246</v>
@@ -7803,7 +8405,7 @@
       <c r="J103" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K103" s="86">
+      <c r="K103" s="38">
         <v>1</v>
       </c>
       <c r="L103" s="68">
@@ -7830,7 +8432,7 @@
         <v>393</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>499</v>
+        <v>870</v>
       </c>
       <c r="H104" s="38" t="s">
         <v>246</v>
@@ -7841,7 +8443,7 @@
       <c r="J104" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K104" s="86">
+      <c r="K104" s="38">
         <v>1</v>
       </c>
       <c r="L104" s="68">
@@ -7868,7 +8470,7 @@
         <v>393</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>500</v>
+        <v>871</v>
       </c>
       <c r="H105" s="38" t="s">
         <v>246</v>
@@ -7879,7 +8481,7 @@
       <c r="J105" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K105" s="86">
+      <c r="K105" s="38">
         <v>1</v>
       </c>
       <c r="L105" s="68">
@@ -7906,7 +8508,7 @@
         <v>393</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>502</v>
+        <v>872</v>
       </c>
       <c r="H106" s="38" t="s">
         <v>246</v>
@@ -7917,7 +8519,7 @@
       <c r="J106" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K106" s="86">
+      <c r="K106" s="38">
         <v>1</v>
       </c>
       <c r="L106" s="68">
@@ -7944,7 +8546,7 @@
         <v>393</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>504</v>
+        <v>873</v>
       </c>
       <c r="H107" s="38" t="s">
         <v>246</v>
@@ -7955,7 +8557,7 @@
       <c r="J107" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K107" s="86">
+      <c r="K107" s="38">
         <v>1</v>
       </c>
       <c r="L107" s="68">
@@ -7982,7 +8584,7 @@
         <v>393</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>506</v>
+        <v>874</v>
       </c>
       <c r="H108" s="38" t="s">
         <v>246</v>
@@ -7993,7 +8595,7 @@
       <c r="J108" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K108" s="86">
+      <c r="K108" s="38">
         <v>1</v>
       </c>
       <c r="L108" s="68">
@@ -8020,7 +8622,7 @@
         <v>393</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>507</v>
+        <v>875</v>
       </c>
       <c r="H109" s="38" t="s">
         <v>246</v>
@@ -8031,7 +8633,7 @@
       <c r="J109" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K109" s="86">
+      <c r="K109" s="38">
         <v>1</v>
       </c>
       <c r="L109" s="68">
@@ -8058,7 +8660,7 @@
         <v>393</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>509</v>
+        <v>876</v>
       </c>
       <c r="H110" s="38" t="s">
         <v>246</v>
@@ -8069,7 +8671,7 @@
       <c r="J110" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K110" s="86">
+      <c r="K110" s="38">
         <v>1</v>
       </c>
       <c r="L110" s="68">
@@ -8096,7 +8698,7 @@
         <v>393</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>511</v>
+        <v>877</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>246</v>
@@ -8107,7 +8709,7 @@
       <c r="J111" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K111" s="86">
+      <c r="K111" s="38">
         <v>1</v>
       </c>
       <c r="L111" s="68">
@@ -8134,7 +8736,7 @@
         <v>393</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>513</v>
+        <v>878</v>
       </c>
       <c r="H112" s="38" t="s">
         <v>246</v>
@@ -8145,7 +8747,7 @@
       <c r="J112" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K112" s="86">
+      <c r="K112" s="38">
         <v>1</v>
       </c>
       <c r="L112" s="68">
@@ -8172,7 +8774,7 @@
         <v>393</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>515</v>
+        <v>879</v>
       </c>
       <c r="H113" s="38" t="s">
         <v>246</v>
@@ -8183,7 +8785,7 @@
       <c r="J113" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K113" s="86">
+      <c r="K113" s="38">
         <v>1</v>
       </c>
       <c r="L113" s="68">
@@ -8210,7 +8812,7 @@
         <v>393</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>517</v>
+        <v>880</v>
       </c>
       <c r="H114" s="38" t="s">
         <v>246</v>
@@ -8221,7 +8823,7 @@
       <c r="J114" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K114" s="86">
+      <c r="K114" s="38">
         <v>1</v>
       </c>
       <c r="L114" s="68">
@@ -8248,7 +8850,7 @@
         <v>393</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>518</v>
+        <v>881</v>
       </c>
       <c r="H115" s="38" t="s">
         <v>246</v>
@@ -8259,7 +8861,7 @@
       <c r="J115" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K115" s="86">
+      <c r="K115" s="38">
         <v>1</v>
       </c>
       <c r="L115" s="68">
@@ -8268,7 +8870,7 @@
     </row>
     <row r="116" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="59" t="s">
-        <v>808</v>
+        <v>760</v>
       </c>
       <c r="B116" s="44" t="s">
         <v>727</v>
@@ -8297,13 +8899,13 @@
       <c r="A117" s="40">
         <v>112</v>
       </c>
-      <c r="B117" s="87" t="s">
-        <v>390</v>
-      </c>
-      <c r="C117" s="87" t="s">
+      <c r="B117" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="C117" s="83" t="s">
         <v>732</v>
       </c>
-      <c r="D117" s="87" t="s">
+      <c r="D117" s="83" t="s">
         <v>732</v>
       </c>
       <c r="E117" s="41" t="s">
@@ -8313,7 +8915,7 @@
         <v>398</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>735</v>
+        <v>882</v>
       </c>
       <c r="H117" s="38" t="s">
         <v>246</v>
@@ -8324,13 +8926,13 @@
       <c r="J117" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K117" s="86">
+      <c r="K117" s="38">
         <v>1</v>
       </c>
       <c r="L117" s="68">
         <v>112</v>
       </c>
-      <c r="M117" s="87"/>
+      <c r="M117" s="83"/>
     </row>
     <row r="118" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
@@ -8352,7 +8954,7 @@
         <v>709</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>526</v>
+        <v>883</v>
       </c>
       <c r="H118" s="38" t="s">
         <v>246</v>
@@ -8363,7 +8965,7 @@
       <c r="J118" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K118" s="86">
+      <c r="K118" s="38">
         <v>1</v>
       </c>
       <c r="L118" s="68">
@@ -8390,7 +8992,7 @@
         <v>709</v>
       </c>
       <c r="G119" s="41" t="s">
-        <v>528</v>
+        <v>884</v>
       </c>
       <c r="H119" s="38" t="s">
         <v>246</v>
@@ -8401,7 +9003,7 @@
       <c r="J119" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K119" s="86">
+      <c r="K119" s="38">
         <v>1</v>
       </c>
       <c r="L119" s="68">
@@ -8428,7 +9030,7 @@
         <v>709</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>529</v>
+        <v>885</v>
       </c>
       <c r="H120" s="38" t="s">
         <v>246</v>
@@ -8439,7 +9041,7 @@
       <c r="J120" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K120" s="86">
+      <c r="K120" s="38">
         <v>1</v>
       </c>
       <c r="L120" s="68">
@@ -8466,7 +9068,7 @@
         <v>709</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>531</v>
+        <v>886</v>
       </c>
       <c r="H121" s="38" t="s">
         <v>246</v>
@@ -8477,7 +9079,7 @@
       <c r="J121" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K121" s="86">
+      <c r="K121" s="38">
         <v>1</v>
       </c>
       <c r="L121" s="68">
@@ -8504,7 +9106,7 @@
         <v>709</v>
       </c>
       <c r="G122" s="41" t="s">
-        <v>533</v>
+        <v>887</v>
       </c>
       <c r="H122" s="38" t="s">
         <v>246</v>
@@ -8515,7 +9117,7 @@
       <c r="J122" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K122" s="86">
+      <c r="K122" s="38">
         <v>1</v>
       </c>
       <c r="L122" s="68">
@@ -8542,7 +9144,7 @@
         <v>709</v>
       </c>
       <c r="G123" s="41" t="s">
-        <v>535</v>
+        <v>888</v>
       </c>
       <c r="H123" s="38" t="s">
         <v>246</v>
@@ -8553,7 +9155,7 @@
       <c r="J123" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K123" s="86">
+      <c r="K123" s="38">
         <v>1</v>
       </c>
       <c r="L123" s="68">
@@ -8580,7 +9182,7 @@
         <v>709</v>
       </c>
       <c r="G124" s="41" t="s">
-        <v>539</v>
+        <v>889</v>
       </c>
       <c r="H124" s="38" t="s">
         <v>246</v>
@@ -8591,7 +9193,7 @@
       <c r="J124" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K124" s="86">
+      <c r="K124" s="38">
         <v>1</v>
       </c>
       <c r="L124" s="68">
@@ -8618,7 +9220,7 @@
         <v>709</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>540</v>
+        <v>890</v>
       </c>
       <c r="H125" s="38" t="s">
         <v>246</v>
@@ -8629,7 +9231,7 @@
       <c r="J125" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K125" s="86">
+      <c r="K125" s="38">
         <v>1</v>
       </c>
       <c r="L125" s="68">
@@ -8656,7 +9258,7 @@
         <v>709</v>
       </c>
       <c r="G126" s="41" t="s">
-        <v>541</v>
+        <v>891</v>
       </c>
       <c r="H126" s="38" t="s">
         <v>246</v>
@@ -8667,7 +9269,7 @@
       <c r="J126" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K126" s="86">
+      <c r="K126" s="38">
         <v>1</v>
       </c>
       <c r="L126" s="68">
@@ -8694,7 +9296,7 @@
         <v>709</v>
       </c>
       <c r="G127" s="41" t="s">
-        <v>542</v>
+        <v>892</v>
       </c>
       <c r="H127" s="38" t="s">
         <v>246</v>
@@ -8705,7 +9307,7 @@
       <c r="J127" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K127" s="86">
+      <c r="K127" s="38">
         <v>1</v>
       </c>
       <c r="L127" s="68">
@@ -8732,7 +9334,7 @@
         <v>709</v>
       </c>
       <c r="G128" s="41" t="s">
-        <v>545</v>
+        <v>893</v>
       </c>
       <c r="H128" s="38" t="s">
         <v>246</v>
@@ -8743,7 +9345,7 @@
       <c r="J128" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K128" s="86">
+      <c r="K128" s="38">
         <v>1</v>
       </c>
       <c r="L128" s="68">
@@ -8770,7 +9372,7 @@
         <v>709</v>
       </c>
       <c r="G129" s="41" t="s">
-        <v>547</v>
+        <v>894</v>
       </c>
       <c r="H129" s="38" t="s">
         <v>246</v>
@@ -8781,7 +9383,7 @@
       <c r="J129" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K129" s="86">
+      <c r="K129" s="38">
         <v>1</v>
       </c>
       <c r="L129" s="68">
@@ -8808,7 +9410,7 @@
         <v>709</v>
       </c>
       <c r="G130" s="41" t="s">
-        <v>548</v>
+        <v>895</v>
       </c>
       <c r="H130" s="38" t="s">
         <v>246</v>
@@ -8819,7 +9421,7 @@
       <c r="J130" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K130" s="86">
+      <c r="K130" s="38">
         <v>1</v>
       </c>
       <c r="L130" s="68">
@@ -8846,7 +9448,7 @@
         <v>709</v>
       </c>
       <c r="G131" s="41" t="s">
-        <v>550</v>
+        <v>896</v>
       </c>
       <c r="H131" s="38" t="s">
         <v>246</v>
@@ -8857,7 +9459,7 @@
       <c r="J131" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K131" s="86">
+      <c r="K131" s="38">
         <v>1</v>
       </c>
       <c r="L131" s="68">
@@ -8884,7 +9486,7 @@
         <v>709</v>
       </c>
       <c r="G132" s="41" t="s">
-        <v>552</v>
+        <v>897</v>
       </c>
       <c r="H132" s="38" t="s">
         <v>246</v>
@@ -8895,7 +9497,7 @@
       <c r="J132" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K132" s="86">
+      <c r="K132" s="38">
         <v>1</v>
       </c>
       <c r="L132" s="68">
@@ -8922,7 +9524,7 @@
         <v>709</v>
       </c>
       <c r="G133" s="41" t="s">
-        <v>553</v>
+        <v>898</v>
       </c>
       <c r="H133" s="38" t="s">
         <v>246</v>
@@ -8933,7 +9535,7 @@
       <c r="J133" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K133" s="86">
+      <c r="K133" s="38">
         <v>1</v>
       </c>
       <c r="L133" s="68">
@@ -8960,7 +9562,7 @@
         <v>709</v>
       </c>
       <c r="G134" s="41" t="s">
-        <v>554</v>
+        <v>899</v>
       </c>
       <c r="H134" s="38" t="s">
         <v>246</v>
@@ -8971,7 +9573,7 @@
       <c r="J134" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K134" s="86">
+      <c r="K134" s="38">
         <v>1</v>
       </c>
       <c r="L134" s="68">
@@ -8998,7 +9600,7 @@
         <v>709</v>
       </c>
       <c r="G135" s="41" t="s">
-        <v>555</v>
+        <v>900</v>
       </c>
       <c r="H135" s="38" t="s">
         <v>246</v>
@@ -9009,7 +9611,7 @@
       <c r="J135" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K135" s="86">
+      <c r="K135" s="38">
         <v>1</v>
       </c>
       <c r="L135" s="68">
@@ -9036,7 +9638,7 @@
         <v>709</v>
       </c>
       <c r="G136" s="41" t="s">
-        <v>556</v>
+        <v>901</v>
       </c>
       <c r="H136" s="38" t="s">
         <v>246</v>
@@ -9047,7 +9649,7 @@
       <c r="J136" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K136" s="86">
+      <c r="K136" s="38">
         <v>1</v>
       </c>
       <c r="L136" s="68">
@@ -9074,7 +9676,7 @@
         <v>709</v>
       </c>
       <c r="G137" s="41" t="s">
-        <v>557</v>
+        <v>902</v>
       </c>
       <c r="H137" s="38" t="s">
         <v>246</v>
@@ -9085,7 +9687,7 @@
       <c r="J137" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K137" s="86">
+      <c r="K137" s="38">
         <v>1</v>
       </c>
       <c r="L137" s="68">
@@ -9112,7 +9714,7 @@
         <v>709</v>
       </c>
       <c r="G138" s="41" t="s">
-        <v>559</v>
+        <v>903</v>
       </c>
       <c r="H138" s="38" t="s">
         <v>246</v>
@@ -9123,7 +9725,7 @@
       <c r="J138" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K138" s="86">
+      <c r="K138" s="38">
         <v>1</v>
       </c>
       <c r="L138" s="68">
@@ -9150,7 +9752,7 @@
         <v>709</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>561</v>
+        <v>904</v>
       </c>
       <c r="H139" s="38" t="s">
         <v>246</v>
@@ -9161,7 +9763,7 @@
       <c r="J139" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K139" s="86">
+      <c r="K139" s="38">
         <v>1</v>
       </c>
       <c r="L139" s="68">
@@ -9188,7 +9790,7 @@
         <v>709</v>
       </c>
       <c r="G140" s="41" t="s">
-        <v>562</v>
+        <v>905</v>
       </c>
       <c r="H140" s="38" t="s">
         <v>246</v>
@@ -9199,7 +9801,7 @@
       <c r="J140" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K140" s="86">
+      <c r="K140" s="38">
         <v>1</v>
       </c>
       <c r="L140" s="68">
@@ -9226,7 +9828,7 @@
         <v>709</v>
       </c>
       <c r="G141" s="41" t="s">
-        <v>563</v>
+        <v>906</v>
       </c>
       <c r="H141" s="38" t="s">
         <v>246</v>
@@ -9237,7 +9839,7 @@
       <c r="J141" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K141" s="86">
+      <c r="K141" s="38">
         <v>1</v>
       </c>
       <c r="L141" s="68">
@@ -9264,7 +9866,7 @@
         <v>709</v>
       </c>
       <c r="G142" s="41" t="s">
-        <v>565</v>
+        <v>907</v>
       </c>
       <c r="H142" s="38" t="s">
         <v>246</v>
@@ -9275,7 +9877,7 @@
       <c r="J142" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K142" s="86">
+      <c r="K142" s="38">
         <v>1</v>
       </c>
       <c r="L142" s="68">
@@ -9302,7 +9904,7 @@
         <v>709</v>
       </c>
       <c r="G143" s="41" t="s">
-        <v>567</v>
+        <v>908</v>
       </c>
       <c r="H143" s="38" t="s">
         <v>246</v>
@@ -9313,7 +9915,7 @@
       <c r="J143" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K143" s="86">
+      <c r="K143" s="38">
         <v>1</v>
       </c>
       <c r="L143" s="68">
@@ -9340,7 +9942,7 @@
         <v>709</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>536</v>
+        <v>909</v>
       </c>
       <c r="H144" s="38" t="s">
         <v>246</v>
@@ -9351,7 +9953,7 @@
       <c r="J144" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K144" s="86">
+      <c r="K144" s="38">
         <v>1</v>
       </c>
       <c r="L144" s="68">
@@ -9378,7 +9980,7 @@
         <v>709</v>
       </c>
       <c r="G145" s="41" t="s">
-        <v>537</v>
+        <v>910</v>
       </c>
       <c r="H145" s="38" t="s">
         <v>246</v>
@@ -9389,7 +9991,7 @@
       <c r="J145" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K145" s="86">
+      <c r="K145" s="38">
         <v>1</v>
       </c>
       <c r="L145" s="68">
@@ -9416,7 +10018,7 @@
         <v>709</v>
       </c>
       <c r="G146" s="41" t="s">
-        <v>568</v>
+        <v>911</v>
       </c>
       <c r="H146" s="38" t="s">
         <v>246</v>
@@ -9427,7 +10029,7 @@
       <c r="J146" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K146" s="86">
+      <c r="K146" s="38">
         <v>1</v>
       </c>
       <c r="L146" s="68">
@@ -9436,7 +10038,7 @@
     </row>
     <row r="147" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="59" t="s">
-        <v>809</v>
+        <v>761</v>
       </c>
       <c r="B147" s="44" t="s">
         <v>728</v>
@@ -9481,7 +10083,7 @@
         <v>393</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>569</v>
+        <v>912</v>
       </c>
       <c r="H148" s="38" t="s">
         <v>246</v>
@@ -9492,7 +10094,7 @@
       <c r="J148" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K148" s="86">
+      <c r="K148" s="38">
         <v>1</v>
       </c>
       <c r="L148" s="61">
@@ -9519,7 +10121,7 @@
         <v>393</v>
       </c>
       <c r="G149" s="41" t="s">
-        <v>570</v>
+        <v>913</v>
       </c>
       <c r="H149" s="38" t="s">
         <v>246</v>
@@ -9530,7 +10132,7 @@
       <c r="J149" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K149" s="86">
+      <c r="K149" s="38">
         <v>1</v>
       </c>
       <c r="L149" s="61">
@@ -9557,7 +10159,7 @@
         <v>393</v>
       </c>
       <c r="G150" s="41" t="s">
-        <v>572</v>
+        <v>914</v>
       </c>
       <c r="H150" s="38" t="s">
         <v>246</v>
@@ -9568,7 +10170,7 @@
       <c r="J150" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K150" s="86">
+      <c r="K150" s="38">
         <v>1</v>
       </c>
       <c r="L150" s="61">
@@ -9595,7 +10197,7 @@
         <v>393</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>574</v>
+        <v>915</v>
       </c>
       <c r="H151" s="38" t="s">
         <v>246</v>
@@ -9606,7 +10208,7 @@
       <c r="J151" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K151" s="86">
+      <c r="K151" s="38">
         <v>1</v>
       </c>
       <c r="L151" s="61">
@@ -9633,7 +10235,7 @@
         <v>393</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>576</v>
+        <v>916</v>
       </c>
       <c r="H152" s="38" t="s">
         <v>246</v>
@@ -9644,7 +10246,7 @@
       <c r="J152" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K152" s="86">
+      <c r="K152" s="38">
         <v>1</v>
       </c>
       <c r="L152" s="61">
@@ -9671,7 +10273,7 @@
         <v>393</v>
       </c>
       <c r="G153" s="41" t="s">
-        <v>578</v>
+        <v>917</v>
       </c>
       <c r="H153" s="38" t="s">
         <v>246</v>
@@ -9682,7 +10284,7 @@
       <c r="J153" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K153" s="86">
+      <c r="K153" s="38">
         <v>1</v>
       </c>
       <c r="L153" s="61">
@@ -9709,7 +10311,7 @@
         <v>393</v>
       </c>
       <c r="G154" s="41" t="s">
-        <v>580</v>
+        <v>918</v>
       </c>
       <c r="H154" s="38" t="s">
         <v>246</v>
@@ -9720,7 +10322,7 @@
       <c r="J154" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K154" s="86">
+      <c r="K154" s="38">
         <v>1</v>
       </c>
       <c r="L154" s="61">
@@ -9747,7 +10349,7 @@
         <v>393</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>582</v>
+        <v>919</v>
       </c>
       <c r="H155" s="38" t="s">
         <v>246</v>
@@ -9758,7 +10360,7 @@
       <c r="J155" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K155" s="86">
+      <c r="K155" s="38">
         <v>1</v>
       </c>
       <c r="L155" s="61">
@@ -9785,7 +10387,7 @@
         <v>393</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>584</v>
+        <v>920</v>
       </c>
       <c r="H156" s="38" t="s">
         <v>246</v>
@@ -9796,7 +10398,7 @@
       <c r="J156" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K156" s="86">
+      <c r="K156" s="38">
         <v>1</v>
       </c>
       <c r="L156" s="61">
@@ -9823,7 +10425,7 @@
         <v>393</v>
       </c>
       <c r="G157" s="41" t="s">
-        <v>586</v>
+        <v>921</v>
       </c>
       <c r="H157" s="38" t="s">
         <v>246</v>
@@ -9834,7 +10436,7 @@
       <c r="J157" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K157" s="86">
+      <c r="K157" s="38">
         <v>1</v>
       </c>
       <c r="L157" s="61">
@@ -9861,7 +10463,7 @@
         <v>393</v>
       </c>
       <c r="G158" s="41" t="s">
-        <v>588</v>
+        <v>922</v>
       </c>
       <c r="H158" s="38" t="s">
         <v>246</v>
@@ -9872,7 +10474,7 @@
       <c r="J158" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K158" s="86">
+      <c r="K158" s="38">
         <v>1</v>
       </c>
       <c r="L158" s="61">
@@ -9899,7 +10501,7 @@
         <v>393</v>
       </c>
       <c r="G159" s="41" t="s">
-        <v>590</v>
+        <v>923</v>
       </c>
       <c r="H159" s="38" t="s">
         <v>246</v>
@@ -9910,7 +10512,7 @@
       <c r="J159" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K159" s="86">
+      <c r="K159" s="38">
         <v>1</v>
       </c>
       <c r="L159" s="61">
@@ -9937,7 +10539,7 @@
         <v>393</v>
       </c>
       <c r="G160" s="41" t="s">
-        <v>592</v>
+        <v>924</v>
       </c>
       <c r="H160" s="38" t="s">
         <v>246</v>
@@ -9948,7 +10550,7 @@
       <c r="J160" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K160" s="86">
+      <c r="K160" s="38">
         <v>1</v>
       </c>
       <c r="L160" s="61">
@@ -9975,7 +10577,7 @@
         <v>393</v>
       </c>
       <c r="G161" s="41" t="s">
-        <v>594</v>
+        <v>925</v>
       </c>
       <c r="H161" s="38" t="s">
         <v>246</v>
@@ -9986,7 +10588,7 @@
       <c r="J161" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K161" s="86">
+      <c r="K161" s="38">
         <v>1</v>
       </c>
       <c r="L161" s="61">
@@ -10013,7 +10615,7 @@
         <v>393</v>
       </c>
       <c r="G162" s="41" t="s">
-        <v>596</v>
+        <v>926</v>
       </c>
       <c r="H162" s="38" t="s">
         <v>246</v>
@@ -10024,7 +10626,7 @@
       <c r="J162" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K162" s="86">
+      <c r="K162" s="38">
         <v>1</v>
       </c>
       <c r="L162" s="61">
@@ -10051,7 +10653,7 @@
         <v>393</v>
       </c>
       <c r="G163" s="41" t="s">
-        <v>598</v>
+        <v>927</v>
       </c>
       <c r="H163" s="38" t="s">
         <v>246</v>
@@ -10062,7 +10664,7 @@
       <c r="J163" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K163" s="86">
+      <c r="K163" s="38">
         <v>1</v>
       </c>
       <c r="L163" s="61">
@@ -10089,7 +10691,7 @@
         <v>393</v>
       </c>
       <c r="G164" s="41" t="s">
-        <v>600</v>
+        <v>928</v>
       </c>
       <c r="H164" s="38" t="s">
         <v>246</v>
@@ -10100,7 +10702,7 @@
       <c r="J164" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K164" s="86">
+      <c r="K164" s="38">
         <v>1</v>
       </c>
       <c r="L164" s="61">
@@ -10127,7 +10729,7 @@
         <v>393</v>
       </c>
       <c r="G165" s="41" t="s">
-        <v>602</v>
+        <v>929</v>
       </c>
       <c r="H165" s="38" t="s">
         <v>246</v>
@@ -10138,7 +10740,7 @@
       <c r="J165" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K165" s="86">
+      <c r="K165" s="38">
         <v>1</v>
       </c>
       <c r="L165" s="61">
@@ -10165,7 +10767,7 @@
         <v>393</v>
       </c>
       <c r="G166" s="41" t="s">
-        <v>604</v>
+        <v>930</v>
       </c>
       <c r="H166" s="38" t="s">
         <v>246</v>
@@ -10176,7 +10778,7 @@
       <c r="J166" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K166" s="86">
+      <c r="K166" s="38">
         <v>1</v>
       </c>
       <c r="L166" s="61">
@@ -10203,7 +10805,7 @@
         <v>393</v>
       </c>
       <c r="G167" s="41" t="s">
-        <v>606</v>
+        <v>931</v>
       </c>
       <c r="H167" s="38" t="s">
         <v>246</v>
@@ -10214,7 +10816,7 @@
       <c r="J167" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K167" s="86">
+      <c r="K167" s="38">
         <v>1</v>
       </c>
       <c r="L167" s="61">
@@ -10223,7 +10825,7 @@
     </row>
     <row r="168" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="59" t="s">
-        <v>810</v>
+        <v>762</v>
       </c>
       <c r="B168" s="44" t="s">
         <v>729</v>
@@ -10268,7 +10870,7 @@
         <v>393</v>
       </c>
       <c r="G169" s="41" t="s">
-        <v>607</v>
+        <v>932</v>
       </c>
       <c r="H169" s="38" t="s">
         <v>246</v>
@@ -10279,7 +10881,7 @@
       <c r="J169" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K169" s="86">
+      <c r="K169" s="38">
         <v>1</v>
       </c>
       <c r="L169" s="68">
@@ -10306,7 +10908,7 @@
         <v>393</v>
       </c>
       <c r="G170" s="41" t="s">
-        <v>608</v>
+        <v>933</v>
       </c>
       <c r="H170" s="38" t="s">
         <v>246</v>
@@ -10317,7 +10919,7 @@
       <c r="J170" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K170" s="86">
+      <c r="K170" s="38">
         <v>1</v>
       </c>
       <c r="L170" s="68">
@@ -10344,7 +10946,7 @@
         <v>393</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>609</v>
+        <v>934</v>
       </c>
       <c r="H171" s="38" t="s">
         <v>246</v>
@@ -10355,7 +10957,7 @@
       <c r="J171" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K171" s="86">
+      <c r="K171" s="38">
         <v>1</v>
       </c>
       <c r="L171" s="68">
@@ -10382,7 +10984,7 @@
         <v>393</v>
       </c>
       <c r="G172" s="41" t="s">
-        <v>610</v>
+        <v>935</v>
       </c>
       <c r="H172" s="38" t="s">
         <v>246</v>
@@ -10393,7 +10995,7 @@
       <c r="J172" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K172" s="86">
+      <c r="K172" s="38">
         <v>1</v>
       </c>
       <c r="L172" s="68">
@@ -10420,7 +11022,7 @@
         <v>393</v>
       </c>
       <c r="G173" s="41" t="s">
-        <v>611</v>
+        <v>936</v>
       </c>
       <c r="H173" s="38" t="s">
         <v>246</v>
@@ -10431,7 +11033,7 @@
       <c r="J173" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K173" s="86">
+      <c r="K173" s="38">
         <v>1</v>
       </c>
       <c r="L173" s="68">
@@ -10458,7 +11060,7 @@
         <v>393</v>
       </c>
       <c r="G174" s="41" t="s">
-        <v>612</v>
+        <v>937</v>
       </c>
       <c r="H174" s="38" t="s">
         <v>246</v>
@@ -10469,7 +11071,7 @@
       <c r="J174" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K174" s="86">
+      <c r="K174" s="38">
         <v>1</v>
       </c>
       <c r="L174" s="68">
@@ -10496,7 +11098,7 @@
         <v>393</v>
       </c>
       <c r="G175" s="41" t="s">
-        <v>614</v>
+        <v>938</v>
       </c>
       <c r="H175" s="38" t="s">
         <v>246</v>
@@ -10507,7 +11109,7 @@
       <c r="J175" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K175" s="86">
+      <c r="K175" s="38">
         <v>1</v>
       </c>
       <c r="L175" s="68">
@@ -10534,7 +11136,7 @@
         <v>393</v>
       </c>
       <c r="G176" s="41" t="s">
-        <v>738</v>
+        <v>939</v>
       </c>
       <c r="H176" s="38" t="s">
         <v>246</v>
@@ -10545,7 +11147,7 @@
       <c r="J176" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K176" s="86">
+      <c r="K176" s="38">
         <v>1</v>
       </c>
       <c r="L176" s="68">
@@ -10572,7 +11174,7 @@
         <v>393</v>
       </c>
       <c r="G177" s="41" t="s">
-        <v>738</v>
+        <v>940</v>
       </c>
       <c r="H177" s="38" t="s">
         <v>246</v>
@@ -10583,7 +11185,7 @@
       <c r="J177" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K177" s="86">
+      <c r="K177" s="38">
         <v>1</v>
       </c>
       <c r="L177" s="68">
@@ -10610,7 +11212,7 @@
         <v>393</v>
       </c>
       <c r="G178" s="41" t="s">
-        <v>618</v>
+        <v>941</v>
       </c>
       <c r="H178" s="38" t="s">
         <v>246</v>
@@ -10621,7 +11223,7 @@
       <c r="J178" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K178" s="86">
+      <c r="K178" s="38">
         <v>1</v>
       </c>
       <c r="L178" s="68">
@@ -10648,7 +11250,7 @@
         <v>393</v>
       </c>
       <c r="G179" s="41" t="s">
-        <v>620</v>
+        <v>942</v>
       </c>
       <c r="H179" s="38" t="s">
         <v>246</v>
@@ -10659,7 +11261,7 @@
       <c r="J179" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K179" s="86">
+      <c r="K179" s="38">
         <v>1</v>
       </c>
       <c r="L179" s="68">
@@ -10686,7 +11288,7 @@
         <v>393</v>
       </c>
       <c r="G180" s="41" t="s">
-        <v>622</v>
+        <v>943</v>
       </c>
       <c r="H180" s="38" t="s">
         <v>246</v>
@@ -10697,7 +11299,7 @@
       <c r="J180" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K180" s="86">
+      <c r="K180" s="38">
         <v>1</v>
       </c>
       <c r="L180" s="68">
@@ -10724,7 +11326,7 @@
         <v>393</v>
       </c>
       <c r="G181" s="41" t="s">
-        <v>624</v>
+        <v>944</v>
       </c>
       <c r="H181" s="38" t="s">
         <v>246</v>
@@ -10735,7 +11337,7 @@
       <c r="J181" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K181" s="86">
+      <c r="K181" s="38">
         <v>1</v>
       </c>
       <c r="L181" s="68">
@@ -10762,7 +11364,7 @@
         <v>393</v>
       </c>
       <c r="G182" s="41" t="s">
-        <v>626</v>
+        <v>945</v>
       </c>
       <c r="H182" s="38" t="s">
         <v>246</v>
@@ -10773,7 +11375,7 @@
       <c r="J182" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K182" s="86">
+      <c r="K182" s="38">
         <v>1</v>
       </c>
       <c r="L182" s="68">
@@ -10800,7 +11402,7 @@
         <v>393</v>
       </c>
       <c r="G183" s="41" t="s">
-        <v>628</v>
+        <v>946</v>
       </c>
       <c r="H183" s="38" t="s">
         <v>246</v>
@@ -10811,7 +11413,7 @@
       <c r="J183" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K183" s="86">
+      <c r="K183" s="38">
         <v>1</v>
       </c>
       <c r="L183" s="68">
@@ -10838,7 +11440,7 @@
         <v>393</v>
       </c>
       <c r="G184" s="41" t="s">
-        <v>630</v>
+        <v>947</v>
       </c>
       <c r="H184" s="38" t="s">
         <v>246</v>
@@ -10849,7 +11451,7 @@
       <c r="J184" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K184" s="86">
+      <c r="K184" s="38">
         <v>1</v>
       </c>
       <c r="L184" s="68">
@@ -10876,7 +11478,7 @@
         <v>393</v>
       </c>
       <c r="G185" s="41" t="s">
-        <v>632</v>
+        <v>948</v>
       </c>
       <c r="H185" s="38" t="s">
         <v>246</v>
@@ -10887,7 +11489,7 @@
       <c r="J185" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K185" s="86">
+      <c r="K185" s="38">
         <v>1</v>
       </c>
       <c r="L185" s="68">
@@ -10914,7 +11516,7 @@
         <v>393</v>
       </c>
       <c r="G186" s="41" t="s">
-        <v>634</v>
+        <v>949</v>
       </c>
       <c r="H186" s="38" t="s">
         <v>246</v>
@@ -10925,7 +11527,7 @@
       <c r="J186" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K186" s="86">
+      <c r="K186" s="38">
         <v>1</v>
       </c>
       <c r="L186" s="68">
@@ -10952,7 +11554,7 @@
         <v>393</v>
       </c>
       <c r="G187" s="41" t="s">
-        <v>636</v>
+        <v>950</v>
       </c>
       <c r="H187" s="38" t="s">
         <v>246</v>
@@ -10963,7 +11565,7 @@
       <c r="J187" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K187" s="86">
+      <c r="K187" s="38">
         <v>1</v>
       </c>
       <c r="L187" s="68">
@@ -10990,7 +11592,7 @@
         <v>393</v>
       </c>
       <c r="G188" s="41" t="s">
-        <v>638</v>
+        <v>951</v>
       </c>
       <c r="H188" s="38" t="s">
         <v>246</v>
@@ -11001,7 +11603,7 @@
       <c r="J188" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K188" s="86">
+      <c r="K188" s="38">
         <v>1</v>
       </c>
       <c r="L188" s="68">
@@ -11028,7 +11630,7 @@
         <v>393</v>
       </c>
       <c r="G189" s="41" t="s">
-        <v>640</v>
+        <v>952</v>
       </c>
       <c r="H189" s="38" t="s">
         <v>246</v>
@@ -11039,7 +11641,7 @@
       <c r="J189" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K189" s="86">
+      <c r="K189" s="38">
         <v>1</v>
       </c>
       <c r="L189" s="68">
@@ -11066,7 +11668,7 @@
         <v>393</v>
       </c>
       <c r="G190" s="41" t="s">
-        <v>642</v>
+        <v>953</v>
       </c>
       <c r="H190" s="38" t="s">
         <v>246</v>
@@ -11077,7 +11679,7 @@
       <c r="J190" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K190" s="86">
+      <c r="K190" s="38">
         <v>1</v>
       </c>
       <c r="L190" s="68">
@@ -11104,7 +11706,7 @@
         <v>393</v>
       </c>
       <c r="G191" s="41" t="s">
-        <v>644</v>
+        <v>954</v>
       </c>
       <c r="H191" s="38" t="s">
         <v>246</v>
@@ -11115,7 +11717,7 @@
       <c r="J191" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K191" s="86">
+      <c r="K191" s="38">
         <v>1</v>
       </c>
       <c r="L191" s="68">
@@ -11142,7 +11744,7 @@
         <v>393</v>
       </c>
       <c r="G192" s="41" t="s">
-        <v>646</v>
+        <v>955</v>
       </c>
       <c r="H192" s="38" t="s">
         <v>246</v>
@@ -11153,7 +11755,7 @@
       <c r="J192" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K192" s="86">
+      <c r="K192" s="38">
         <v>1</v>
       </c>
       <c r="L192" s="68">
@@ -11180,7 +11782,7 @@
         <v>393</v>
       </c>
       <c r="G193" s="41" t="s">
-        <v>647</v>
+        <v>956</v>
       </c>
       <c r="H193" s="38" t="s">
         <v>246</v>
@@ -11191,7 +11793,7 @@
       <c r="J193" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K193" s="86">
+      <c r="K193" s="38">
         <v>1</v>
       </c>
       <c r="L193" s="68">
@@ -11218,7 +11820,7 @@
         <v>393</v>
       </c>
       <c r="G194" s="41" t="s">
-        <v>648</v>
+        <v>957</v>
       </c>
       <c r="H194" s="38" t="s">
         <v>246</v>
@@ -11229,7 +11831,7 @@
       <c r="J194" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K194" s="86">
+      <c r="K194" s="38">
         <v>1</v>
       </c>
       <c r="L194" s="68">
@@ -11256,7 +11858,7 @@
         <v>393</v>
       </c>
       <c r="G195" s="41" t="s">
-        <v>649</v>
+        <v>958</v>
       </c>
       <c r="H195" s="38" t="s">
         <v>246</v>
@@ -11267,7 +11869,7 @@
       <c r="J195" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K195" s="86">
+      <c r="K195" s="38">
         <v>1</v>
       </c>
       <c r="L195" s="68">
@@ -11294,7 +11896,7 @@
         <v>393</v>
       </c>
       <c r="G196" s="41" t="s">
-        <v>650</v>
+        <v>959</v>
       </c>
       <c r="H196" s="38" t="s">
         <v>246</v>
@@ -11305,7 +11907,7 @@
       <c r="J196" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K196" s="86">
+      <c r="K196" s="38">
         <v>1</v>
       </c>
       <c r="L196" s="68">
@@ -11332,7 +11934,7 @@
         <v>393</v>
       </c>
       <c r="G197" s="41" t="s">
-        <v>651</v>
+        <v>960</v>
       </c>
       <c r="H197" s="38" t="s">
         <v>246</v>
@@ -11343,7 +11945,7 @@
       <c r="J197" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K197" s="86">
+      <c r="K197" s="38">
         <v>1</v>
       </c>
       <c r="L197" s="68">
@@ -11370,7 +11972,7 @@
         <v>393</v>
       </c>
       <c r="G198" s="41" t="s">
-        <v>652</v>
+        <v>961</v>
       </c>
       <c r="H198" s="38" t="s">
         <v>246</v>
@@ -11381,7 +11983,7 @@
       <c r="J198" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K198" s="86">
+      <c r="K198" s="38">
         <v>1</v>
       </c>
       <c r="L198" s="68">
@@ -11390,7 +11992,7 @@
     </row>
     <row r="199" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="59" t="s">
-        <v>811</v>
+        <v>763</v>
       </c>
       <c r="B199" s="44" t="s">
         <v>730</v>
@@ -11435,7 +12037,7 @@
         <v>393</v>
       </c>
       <c r="G200" s="41" t="s">
-        <v>740</v>
+        <v>962</v>
       </c>
       <c r="H200" s="38" t="s">
         <v>246</v>
@@ -11446,7 +12048,7 @@
       <c r="J200" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K200" s="86">
+      <c r="K200" s="38">
         <v>1</v>
       </c>
       <c r="L200" s="61">
@@ -11473,7 +12075,7 @@
         <v>709</v>
       </c>
       <c r="G201" s="41" t="s">
-        <v>653</v>
+        <v>963</v>
       </c>
       <c r="H201" s="38" t="s">
         <v>246</v>
@@ -11484,7 +12086,7 @@
       <c r="J201" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K201" s="86">
+      <c r="K201" s="38">
         <v>1</v>
       </c>
       <c r="L201" s="61">
@@ -11511,7 +12113,7 @@
         <v>709</v>
       </c>
       <c r="G202" s="41" t="s">
-        <v>654</v>
+        <v>964</v>
       </c>
       <c r="H202" s="38" t="s">
         <v>246</v>
@@ -11522,7 +12124,7 @@
       <c r="J202" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K202" s="86">
+      <c r="K202" s="38">
         <v>1</v>
       </c>
       <c r="L202" s="61">
@@ -11549,7 +12151,7 @@
         <v>709</v>
       </c>
       <c r="G203" s="41" t="s">
-        <v>655</v>
+        <v>965</v>
       </c>
       <c r="H203" s="38" t="s">
         <v>246</v>
@@ -11560,7 +12162,7 @@
       <c r="J203" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K203" s="86">
+      <c r="K203" s="38">
         <v>1</v>
       </c>
       <c r="L203" s="61">
@@ -11587,7 +12189,7 @@
         <v>709</v>
       </c>
       <c r="G204" s="41" t="s">
-        <v>656</v>
+        <v>966</v>
       </c>
       <c r="H204" s="38" t="s">
         <v>246</v>
@@ -11598,7 +12200,7 @@
       <c r="J204" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K204" s="86">
+      <c r="K204" s="38">
         <v>1</v>
       </c>
       <c r="L204" s="61">
@@ -11625,7 +12227,7 @@
         <v>709</v>
       </c>
       <c r="G205" s="41" t="s">
-        <v>657</v>
+        <v>967</v>
       </c>
       <c r="H205" s="38" t="s">
         <v>246</v>
@@ -11636,7 +12238,7 @@
       <c r="J205" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K205" s="86">
+      <c r="K205" s="38">
         <v>1</v>
       </c>
       <c r="L205" s="61">
@@ -11663,7 +12265,7 @@
         <v>709</v>
       </c>
       <c r="G206" s="41" t="s">
-        <v>658</v>
+        <v>968</v>
       </c>
       <c r="H206" s="38" t="s">
         <v>246</v>
@@ -11674,7 +12276,7 @@
       <c r="J206" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K206" s="86">
+      <c r="K206" s="38">
         <v>1</v>
       </c>
       <c r="L206" s="61">
@@ -11701,7 +12303,7 @@
         <v>709</v>
       </c>
       <c r="G207" s="41" t="s">
-        <v>659</v>
+        <v>969</v>
       </c>
       <c r="H207" s="38" t="s">
         <v>246</v>
@@ -11712,7 +12314,7 @@
       <c r="J207" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K207" s="86">
+      <c r="K207" s="38">
         <v>1</v>
       </c>
       <c r="L207" s="61">
@@ -11739,7 +12341,7 @@
         <v>709</v>
       </c>
       <c r="G208" s="41" t="s">
-        <v>660</v>
+        <v>970</v>
       </c>
       <c r="H208" s="38" t="s">
         <v>246</v>
@@ -11750,7 +12352,7 @@
       <c r="J208" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K208" s="86">
+      <c r="K208" s="38">
         <v>1</v>
       </c>
       <c r="L208" s="61">
@@ -11777,7 +12379,7 @@
         <v>709</v>
       </c>
       <c r="G209" s="41" t="s">
-        <v>661</v>
+        <v>971</v>
       </c>
       <c r="H209" s="38" t="s">
         <v>246</v>
@@ -11788,7 +12390,7 @@
       <c r="J209" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K209" s="86">
+      <c r="K209" s="38">
         <v>1</v>
       </c>
       <c r="L209" s="61">
@@ -11815,7 +12417,7 @@
         <v>709</v>
       </c>
       <c r="G210" s="41" t="s">
-        <v>662</v>
+        <v>972</v>
       </c>
       <c r="H210" s="38" t="s">
         <v>246</v>
@@ -11826,7 +12428,7 @@
       <c r="J210" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K210" s="86">
+      <c r="K210" s="38">
         <v>1</v>
       </c>
       <c r="L210" s="61">
@@ -11853,7 +12455,7 @@
         <v>709</v>
       </c>
       <c r="G211" s="41" t="s">
-        <v>663</v>
+        <v>973</v>
       </c>
       <c r="H211" s="38" t="s">
         <v>246</v>
@@ -11864,7 +12466,7 @@
       <c r="J211" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K211" s="86">
+      <c r="K211" s="38">
         <v>1</v>
       </c>
       <c r="L211" s="61">
@@ -11891,7 +12493,7 @@
         <v>709</v>
       </c>
       <c r="G212" s="41" t="s">
-        <v>664</v>
+        <v>974</v>
       </c>
       <c r="H212" s="38" t="s">
         <v>246</v>
@@ -11902,7 +12504,7 @@
       <c r="J212" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K212" s="86">
+      <c r="K212" s="38">
         <v>1</v>
       </c>
       <c r="L212" s="61">
@@ -11929,7 +12531,7 @@
         <v>709</v>
       </c>
       <c r="G213" s="41" t="s">
-        <v>665</v>
+        <v>975</v>
       </c>
       <c r="H213" s="38" t="s">
         <v>246</v>
@@ -11940,7 +12542,7 @@
       <c r="J213" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K213" s="86">
+      <c r="K213" s="38">
         <v>1</v>
       </c>
       <c r="L213" s="61">
@@ -11967,7 +12569,7 @@
         <v>709</v>
       </c>
       <c r="G214" s="41" t="s">
-        <v>666</v>
+        <v>976</v>
       </c>
       <c r="H214" s="38" t="s">
         <v>246</v>
@@ -11978,7 +12580,7 @@
       <c r="J214" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K214" s="86">
+      <c r="K214" s="38">
         <v>1</v>
       </c>
       <c r="L214" s="61">
@@ -12005,7 +12607,7 @@
         <v>709</v>
       </c>
       <c r="G215" s="41" t="s">
-        <v>667</v>
+        <v>977</v>
       </c>
       <c r="H215" s="38" t="s">
         <v>246</v>
@@ -12016,7 +12618,7 @@
       <c r="J215" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K215" s="86">
+      <c r="K215" s="38">
         <v>1</v>
       </c>
       <c r="L215" s="61">
@@ -12043,7 +12645,7 @@
         <v>709</v>
       </c>
       <c r="G216" s="41" t="s">
-        <v>668</v>
+        <v>978</v>
       </c>
       <c r="H216" s="38" t="s">
         <v>246</v>
@@ -12054,7 +12656,7 @@
       <c r="J216" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K216" s="86">
+      <c r="K216" s="38">
         <v>1</v>
       </c>
       <c r="L216" s="61">
@@ -12081,7 +12683,7 @@
         <v>709</v>
       </c>
       <c r="G217" s="41" t="s">
-        <v>669</v>
+        <v>979</v>
       </c>
       <c r="H217" s="38" t="s">
         <v>246</v>
@@ -12092,7 +12694,7 @@
       <c r="J217" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K217" s="86">
+      <c r="K217" s="38">
         <v>1</v>
       </c>
       <c r="L217" s="61">
@@ -12119,7 +12721,7 @@
         <v>709</v>
       </c>
       <c r="G218" s="41" t="s">
-        <v>670</v>
+        <v>980</v>
       </c>
       <c r="H218" s="38" t="s">
         <v>246</v>
@@ -12130,7 +12732,7 @@
       <c r="J218" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K218" s="86">
+      <c r="K218" s="38">
         <v>1</v>
       </c>
       <c r="L218" s="61">
@@ -12157,7 +12759,7 @@
         <v>709</v>
       </c>
       <c r="G219" s="41" t="s">
-        <v>671</v>
+        <v>981</v>
       </c>
       <c r="H219" s="38" t="s">
         <v>246</v>
@@ -12168,7 +12770,7 @@
       <c r="J219" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K219" s="86">
+      <c r="K219" s="38">
         <v>1</v>
       </c>
       <c r="L219" s="61">
@@ -12195,7 +12797,7 @@
         <v>709</v>
       </c>
       <c r="G220" s="41" t="s">
-        <v>672</v>
+        <v>982</v>
       </c>
       <c r="H220" s="38" t="s">
         <v>246</v>
@@ -12206,7 +12808,7 @@
       <c r="J220" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K220" s="86">
+      <c r="K220" s="38">
         <v>1</v>
       </c>
       <c r="L220" s="61">
@@ -12215,7 +12817,7 @@
     </row>
     <row r="221" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="59" t="s">
-        <v>812</v>
+        <v>764</v>
       </c>
       <c r="B221" s="44" t="s">
         <v>731</v>
@@ -12247,10 +12849,10 @@
       <c r="B222" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C222" s="88" t="s">
+      <c r="C222" s="84" t="s">
         <v>712</v>
       </c>
-      <c r="D222" s="88" t="s">
+      <c r="D222" s="84" t="s">
         <v>712</v>
       </c>
       <c r="E222" s="41" t="s">
@@ -12260,7 +12862,7 @@
         <v>709</v>
       </c>
       <c r="G222" s="41" t="s">
-        <v>674</v>
+        <v>983</v>
       </c>
       <c r="H222" s="38" t="s">
         <v>246</v>
@@ -12271,7 +12873,7 @@
       <c r="J222" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K222" s="86">
+      <c r="K222" s="38">
         <v>1</v>
       </c>
       <c r="L222" s="61">
@@ -12285,10 +12887,10 @@
       <c r="B223" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C223" s="88" t="s">
+      <c r="C223" s="84" t="s">
         <v>713</v>
       </c>
-      <c r="D223" s="88" t="s">
+      <c r="D223" s="84" t="s">
         <v>713</v>
       </c>
       <c r="E223" s="41" t="s">
@@ -12298,7 +12900,7 @@
         <v>709</v>
       </c>
       <c r="G223" s="41" t="s">
-        <v>676</v>
+        <v>984</v>
       </c>
       <c r="H223" s="38" t="s">
         <v>246</v>
@@ -12309,7 +12911,7 @@
       <c r="J223" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K223" s="86">
+      <c r="K223" s="38">
         <v>1</v>
       </c>
       <c r="L223" s="61">
@@ -12323,10 +12925,10 @@
       <c r="B224" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C224" s="88" t="s">
+      <c r="C224" s="84" t="s">
         <v>715</v>
       </c>
-      <c r="D224" s="88" t="s">
+      <c r="D224" s="84" t="s">
         <v>715</v>
       </c>
       <c r="E224" s="41" t="s">
@@ -12336,7 +12938,7 @@
         <v>709</v>
       </c>
       <c r="G224" s="41" t="s">
-        <v>677</v>
+        <v>985</v>
       </c>
       <c r="H224" s="38" t="s">
         <v>246</v>
@@ -12347,7 +12949,7 @@
       <c r="J224" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K224" s="86">
+      <c r="K224" s="38">
         <v>1</v>
       </c>
       <c r="L224" s="61">
@@ -12361,10 +12963,10 @@
       <c r="B225" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C225" s="88" t="s">
+      <c r="C225" s="84" t="s">
         <v>716</v>
       </c>
-      <c r="D225" s="88" t="s">
+      <c r="D225" s="84" t="s">
         <v>716</v>
       </c>
       <c r="E225" s="41" t="s">
@@ -12374,7 +12976,7 @@
         <v>709</v>
       </c>
       <c r="G225" s="41" t="s">
-        <v>678</v>
+        <v>986</v>
       </c>
       <c r="H225" s="38" t="s">
         <v>246</v>
@@ -12385,7 +12987,7 @@
       <c r="J225" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K225" s="86">
+      <c r="K225" s="38">
         <v>1</v>
       </c>
       <c r="L225" s="61">
@@ -12399,10 +13001,10 @@
       <c r="B226" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C226" s="88" t="s">
+      <c r="C226" s="84" t="s">
         <v>575</v>
       </c>
-      <c r="D226" s="88" t="s">
+      <c r="D226" s="84" t="s">
         <v>575</v>
       </c>
       <c r="E226" s="41" t="s">
@@ -12412,7 +13014,7 @@
         <v>709</v>
       </c>
       <c r="G226" s="41" t="s">
-        <v>679</v>
+        <v>987</v>
       </c>
       <c r="H226" s="38" t="s">
         <v>246</v>
@@ -12423,7 +13025,7 @@
       <c r="J226" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K226" s="86">
+      <c r="K226" s="38">
         <v>1</v>
       </c>
       <c r="L226" s="61">
@@ -12437,10 +13039,10 @@
       <c r="B227" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C227" s="88" t="s">
+      <c r="C227" s="84" t="s">
         <v>577</v>
       </c>
-      <c r="D227" s="88" t="s">
+      <c r="D227" s="84" t="s">
         <v>577</v>
       </c>
       <c r="E227" s="41" t="s">
@@ -12450,7 +13052,7 @@
         <v>709</v>
       </c>
       <c r="G227" s="41" t="s">
-        <v>680</v>
+        <v>988</v>
       </c>
       <c r="H227" s="38" t="s">
         <v>246</v>
@@ -12461,7 +13063,7 @@
       <c r="J227" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K227" s="86">
+      <c r="K227" s="38">
         <v>1</v>
       </c>
       <c r="L227" s="61">
@@ -12475,10 +13077,10 @@
       <c r="B228" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C228" s="88" t="s">
+      <c r="C228" s="84" t="s">
         <v>613</v>
       </c>
-      <c r="D228" s="88" t="s">
+      <c r="D228" s="84" t="s">
         <v>613</v>
       </c>
       <c r="E228" s="41" t="s">
@@ -12488,7 +13090,7 @@
         <v>709</v>
       </c>
       <c r="G228" s="41" t="s">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="H228" s="38" t="s">
         <v>246</v>
@@ -12499,7 +13101,7 @@
       <c r="J228" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K228" s="86">
+      <c r="K228" s="38">
         <v>1</v>
       </c>
       <c r="L228" s="61">
@@ -12513,10 +13115,10 @@
       <c r="B229" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C229" s="88" t="s">
+      <c r="C229" s="84" t="s">
         <v>615</v>
       </c>
-      <c r="D229" s="88" t="s">
+      <c r="D229" s="84" t="s">
         <v>734</v>
       </c>
       <c r="E229" s="41" t="s">
@@ -12526,7 +13128,7 @@
         <v>709</v>
       </c>
       <c r="G229" s="41" t="s">
-        <v>733</v>
+        <v>990</v>
       </c>
       <c r="H229" s="38" t="s">
         <v>246</v>
@@ -12537,7 +13139,7 @@
       <c r="J229" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K229" s="86">
+      <c r="K229" s="38">
         <v>1</v>
       </c>
       <c r="L229" s="61">
@@ -12551,10 +13153,10 @@
       <c r="B230" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C230" s="88" t="s">
+      <c r="C230" s="84" t="s">
         <v>617</v>
       </c>
-      <c r="D230" s="88" t="s">
+      <c r="D230" s="84" t="s">
         <v>617</v>
       </c>
       <c r="E230" s="41" t="s">
@@ -12564,7 +13166,7 @@
         <v>709</v>
       </c>
       <c r="G230" s="41" t="s">
-        <v>682</v>
+        <v>991</v>
       </c>
       <c r="H230" s="38" t="s">
         <v>246</v>
@@ -12575,7 +13177,7 @@
       <c r="J230" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K230" s="86">
+      <c r="K230" s="38">
         <v>1</v>
       </c>
       <c r="L230" s="61">
@@ -12589,10 +13191,10 @@
       <c r="B231" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C231" s="88" t="s">
+      <c r="C231" s="84" t="s">
         <v>619</v>
       </c>
-      <c r="D231" s="88" t="s">
+      <c r="D231" s="84" t="s">
         <v>619</v>
       </c>
       <c r="E231" s="41" t="s">
@@ -12602,7 +13204,7 @@
         <v>709</v>
       </c>
       <c r="G231" s="41" t="s">
-        <v>683</v>
+        <v>992</v>
       </c>
       <c r="H231" s="38" t="s">
         <v>246</v>
@@ -12613,7 +13215,7 @@
       <c r="J231" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K231" s="86">
+      <c r="K231" s="38">
         <v>1</v>
       </c>
       <c r="L231" s="61">
@@ -12627,10 +13229,10 @@
       <c r="B232" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C232" s="88" t="s">
+      <c r="C232" s="84" t="s">
         <v>621</v>
       </c>
-      <c r="D232" s="88" t="s">
+      <c r="D232" s="84" t="s">
         <v>621</v>
       </c>
       <c r="E232" s="41" t="s">
@@ -12640,7 +13242,7 @@
         <v>709</v>
       </c>
       <c r="G232" s="41" t="s">
-        <v>684</v>
+        <v>993</v>
       </c>
       <c r="H232" s="38" t="s">
         <v>246</v>
@@ -12651,7 +13253,7 @@
       <c r="J232" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K232" s="86">
+      <c r="K232" s="38">
         <v>1</v>
       </c>
       <c r="L232" s="61">
@@ -12665,10 +13267,10 @@
       <c r="B233" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C233" s="88" t="s">
+      <c r="C233" s="84" t="s">
         <v>623</v>
       </c>
-      <c r="D233" s="88" t="s">
+      <c r="D233" s="84" t="s">
         <v>623</v>
       </c>
       <c r="E233" s="41" t="s">
@@ -12678,7 +13280,7 @@
         <v>709</v>
       </c>
       <c r="G233" s="41" t="s">
-        <v>685</v>
+        <v>994</v>
       </c>
       <c r="H233" s="38" t="s">
         <v>246</v>
@@ -12689,7 +13291,7 @@
       <c r="J233" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K233" s="86">
+      <c r="K233" s="38">
         <v>1</v>
       </c>
       <c r="L233" s="61">
@@ -12703,10 +13305,10 @@
       <c r="B234" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C234" s="88" t="s">
+      <c r="C234" s="84" t="s">
         <v>625</v>
       </c>
-      <c r="D234" s="88" t="s">
+      <c r="D234" s="84" t="s">
         <v>625</v>
       </c>
       <c r="E234" s="41" t="s">
@@ -12716,7 +13318,7 @@
         <v>709</v>
       </c>
       <c r="G234" s="41" t="s">
-        <v>686</v>
+        <v>995</v>
       </c>
       <c r="H234" s="38" t="s">
         <v>246</v>
@@ -12727,7 +13329,7 @@
       <c r="J234" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K234" s="86">
+      <c r="K234" s="38">
         <v>1</v>
       </c>
       <c r="L234" s="61">
@@ -12741,10 +13343,10 @@
       <c r="B235" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C235" s="88" t="s">
+      <c r="C235" s="84" t="s">
         <v>627</v>
       </c>
-      <c r="D235" s="88" t="s">
+      <c r="D235" s="84" t="s">
         <v>627</v>
       </c>
       <c r="E235" s="41" t="s">
@@ -12754,7 +13356,7 @@
         <v>709</v>
       </c>
       <c r="G235" s="41" t="s">
-        <v>687</v>
+        <v>996</v>
       </c>
       <c r="H235" s="38" t="s">
         <v>246</v>
@@ -12765,7 +13367,7 @@
       <c r="J235" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K235" s="86">
+      <c r="K235" s="38">
         <v>1</v>
       </c>
       <c r="L235" s="61">
@@ -12792,7 +13394,7 @@
         <v>709</v>
       </c>
       <c r="G236" s="41" t="s">
-        <v>688</v>
+        <v>997</v>
       </c>
       <c r="H236" s="38" t="s">
         <v>246</v>
@@ -12803,7 +13405,7 @@
       <c r="J236" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K236" s="86">
+      <c r="K236" s="38">
         <v>1</v>
       </c>
       <c r="L236" s="61">
@@ -12817,10 +13419,10 @@
       <c r="B237" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C237" s="88" t="s">
+      <c r="C237" s="84" t="s">
         <v>631</v>
       </c>
-      <c r="D237" s="88" t="s">
+      <c r="D237" s="84" t="s">
         <v>631</v>
       </c>
       <c r="E237" s="41" t="s">
@@ -12830,7 +13432,7 @@
         <v>709</v>
       </c>
       <c r="G237" s="41" t="s">
-        <v>689</v>
+        <v>998</v>
       </c>
       <c r="H237" s="38" t="s">
         <v>246</v>
@@ -12841,7 +13443,7 @@
       <c r="J237" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K237" s="86">
+      <c r="K237" s="38">
         <v>1</v>
       </c>
       <c r="L237" s="61">
@@ -12855,10 +13457,10 @@
       <c r="B238" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C238" s="88" t="s">
+      <c r="C238" s="84" t="s">
         <v>717</v>
       </c>
-      <c r="D238" s="88" t="s">
+      <c r="D238" s="84" t="s">
         <v>717</v>
       </c>
       <c r="E238" s="41" t="s">
@@ -12868,7 +13470,7 @@
         <v>709</v>
       </c>
       <c r="G238" s="41" t="s">
-        <v>690</v>
+        <v>999</v>
       </c>
       <c r="H238" s="38" t="s">
         <v>246</v>
@@ -12879,7 +13481,7 @@
       <c r="J238" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K238" s="86">
+      <c r="K238" s="38">
         <v>1</v>
       </c>
       <c r="L238" s="61">
@@ -12893,10 +13495,10 @@
       <c r="B239" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C239" s="88" t="s">
+      <c r="C239" s="84" t="s">
         <v>641</v>
       </c>
-      <c r="D239" s="88" t="s">
+      <c r="D239" s="84" t="s">
         <v>641</v>
       </c>
       <c r="E239" s="41" t="s">
@@ -12906,7 +13508,7 @@
         <v>709</v>
       </c>
       <c r="G239" s="41" t="s">
-        <v>691</v>
+        <v>1000</v>
       </c>
       <c r="H239" s="38" t="s">
         <v>246</v>
@@ -12917,7 +13519,7 @@
       <c r="J239" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K239" s="86">
+      <c r="K239" s="38">
         <v>1</v>
       </c>
       <c r="L239" s="61">
@@ -12931,10 +13533,10 @@
       <c r="B240" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C240" s="88" t="s">
+      <c r="C240" s="84" t="s">
         <v>643</v>
       </c>
-      <c r="D240" s="88" t="s">
+      <c r="D240" s="84" t="s">
         <v>643</v>
       </c>
       <c r="E240" s="41" t="s">
@@ -12944,7 +13546,7 @@
         <v>709</v>
       </c>
       <c r="G240" s="41" t="s">
-        <v>692</v>
+        <v>1001</v>
       </c>
       <c r="H240" s="38" t="s">
         <v>246</v>
@@ -12955,7 +13557,7 @@
       <c r="J240" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K240" s="86">
+      <c r="K240" s="38">
         <v>1</v>
       </c>
       <c r="L240" s="61">
@@ -12969,10 +13571,10 @@
       <c r="B241" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C241" s="88" t="s">
+      <c r="C241" s="84" t="s">
         <v>645</v>
       </c>
-      <c r="D241" s="88" t="s">
+      <c r="D241" s="84" t="s">
         <v>645</v>
       </c>
       <c r="E241" s="41" t="s">
@@ -12982,7 +13584,7 @@
         <v>709</v>
       </c>
       <c r="G241" s="41" t="s">
-        <v>693</v>
+        <v>1002</v>
       </c>
       <c r="H241" s="38" t="s">
         <v>246</v>
@@ -12993,7 +13595,7 @@
       <c r="J241" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K241" s="86">
+      <c r="K241" s="38">
         <v>1</v>
       </c>
       <c r="L241" s="61">
@@ -13007,10 +13609,10 @@
       <c r="B242" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C242" s="88" t="s">
+      <c r="C242" s="84" t="s">
         <v>718</v>
       </c>
-      <c r="D242" s="88" t="s">
+      <c r="D242" s="84" t="s">
         <v>718</v>
       </c>
       <c r="E242" s="41" t="s">
@@ -13020,7 +13622,7 @@
         <v>709</v>
       </c>
       <c r="G242" s="41" t="s">
-        <v>694</v>
+        <v>1003</v>
       </c>
       <c r="H242" s="38" t="s">
         <v>246</v>
@@ -13031,7 +13633,7 @@
       <c r="J242" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K242" s="86">
+      <c r="K242" s="38">
         <v>1</v>
       </c>
       <c r="L242" s="61">
@@ -13045,7 +13647,7 @@
       <c r="B243" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C243" s="88" t="s">
+      <c r="C243" s="84" t="s">
         <v>719</v>
       </c>
       <c r="D243" s="56" t="s">
@@ -13058,7 +13660,7 @@
         <v>709</v>
       </c>
       <c r="G243" s="41" t="s">
-        <v>695</v>
+        <v>1004</v>
       </c>
       <c r="H243" s="38" t="s">
         <v>246</v>
@@ -13069,7 +13671,7 @@
       <c r="J243" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K243" s="86">
+      <c r="K243" s="38">
         <v>1</v>
       </c>
       <c r="L243" s="61">
@@ -13083,10 +13685,10 @@
       <c r="B244" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C244" s="88" t="s">
+      <c r="C244" s="84" t="s">
         <v>601</v>
       </c>
-      <c r="D244" s="88" t="s">
+      <c r="D244" s="84" t="s">
         <v>601</v>
       </c>
       <c r="E244" s="41" t="s">
@@ -13096,7 +13698,7 @@
         <v>709</v>
       </c>
       <c r="G244" s="41" t="s">
-        <v>696</v>
+        <v>1005</v>
       </c>
       <c r="H244" s="38" t="s">
         <v>246</v>
@@ -13107,7 +13709,7 @@
       <c r="J244" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K244" s="86">
+      <c r="K244" s="38">
         <v>1</v>
       </c>
       <c r="L244" s="61">
@@ -13121,10 +13723,10 @@
       <c r="B245" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C245" s="88" t="s">
+      <c r="C245" s="84" t="s">
         <v>714</v>
       </c>
-      <c r="D245" s="88" t="s">
+      <c r="D245" s="84" t="s">
         <v>714</v>
       </c>
       <c r="E245" s="41" t="s">
@@ -13134,7 +13736,7 @@
         <v>709</v>
       </c>
       <c r="G245" s="41" t="s">
-        <v>697</v>
+        <v>1006</v>
       </c>
       <c r="H245" s="38" t="s">
         <v>246</v>
@@ -13145,7 +13747,7 @@
       <c r="J245" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K245" s="86">
+      <c r="K245" s="38">
         <v>1</v>
       </c>
       <c r="L245" s="61">
@@ -13159,10 +13761,10 @@
       <c r="B246" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C246" s="88" t="s">
+      <c r="C246" s="84" t="s">
         <v>605</v>
       </c>
-      <c r="D246" s="88" t="s">
+      <c r="D246" s="84" t="s">
         <v>605</v>
       </c>
       <c r="E246" s="41" t="s">
@@ -13172,7 +13774,7 @@
         <v>709</v>
       </c>
       <c r="G246" s="41" t="s">
-        <v>698</v>
+        <v>1007</v>
       </c>
       <c r="H246" s="38" t="s">
         <v>246</v>
@@ -13183,7 +13785,7 @@
       <c r="J246" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K246" s="86">
+      <c r="K246" s="38">
         <v>1</v>
       </c>
       <c r="L246" s="61">
@@ -13197,10 +13799,10 @@
       <c r="B247" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C247" s="87" t="s">
+      <c r="C247" s="83" t="s">
         <v>720</v>
       </c>
-      <c r="D247" s="87" t="s">
+      <c r="D247" s="83" t="s">
         <v>720</v>
       </c>
       <c r="E247" s="41" t="s">
@@ -13210,7 +13812,7 @@
         <v>709</v>
       </c>
       <c r="G247" s="41" t="s">
-        <v>699</v>
+        <v>1008</v>
       </c>
       <c r="H247" s="38" t="s">
         <v>246</v>
@@ -13221,7 +13823,7 @@
       <c r="J247" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K247" s="86">
+      <c r="K247" s="38">
         <v>1</v>
       </c>
       <c r="L247" s="61">
@@ -13235,10 +13837,10 @@
       <c r="B248" s="69" t="s">
         <v>390</v>
       </c>
-      <c r="C248" s="87" t="s">
+      <c r="C248" s="83" t="s">
         <v>721</v>
       </c>
-      <c r="D248" s="87" t="s">
+      <c r="D248" s="83" t="s">
         <v>721</v>
       </c>
       <c r="E248" s="77" t="s">
@@ -13247,8 +13849,8 @@
       <c r="F248" s="77" t="s">
         <v>709</v>
       </c>
-      <c r="G248" s="77" t="s">
-        <v>702</v>
+      <c r="G248" s="41" t="s">
+        <v>1009</v>
       </c>
       <c r="H248" s="67" t="s">
         <v>246</v>
@@ -13259,7 +13861,7 @@
       <c r="J248" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K248" s="86">
+      <c r="K248" s="38">
         <v>1</v>
       </c>
       <c r="L248" s="61">
@@ -13268,7 +13870,7 @@
     </row>
     <row r="249" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="59" t="s">
-        <v>813</v>
+        <v>765</v>
       </c>
       <c r="B249" s="44" t="s">
         <v>741</v>
@@ -13297,13 +13899,13 @@
       <c r="A250" s="40">
         <v>240</v>
       </c>
-      <c r="B250" s="87" t="s">
-        <v>390</v>
-      </c>
-      <c r="C250" s="87" t="s">
+      <c r="B250" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="C250" s="83" t="s">
         <v>732</v>
       </c>
-      <c r="D250" s="87" t="s">
+      <c r="D250" s="83" t="s">
         <v>732</v>
       </c>
       <c r="E250" s="41" t="s">
@@ -13313,7 +13915,7 @@
         <v>398</v>
       </c>
       <c r="G250" s="41" t="s">
-        <v>724</v>
+        <v>1010</v>
       </c>
       <c r="H250" s="38" t="s">
         <v>246</v>
@@ -13324,13 +13926,13 @@
       <c r="J250" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K250" s="86">
+      <c r="K250" s="38">
         <v>1</v>
       </c>
       <c r="L250" s="61">
         <v>240</v>
       </c>
-      <c r="M250" s="87"/>
+      <c r="M250" s="83"/>
     </row>
     <row r="251" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
@@ -13352,7 +13954,7 @@
         <v>393</v>
       </c>
       <c r="G251" s="41" t="s">
-        <v>442</v>
+        <v>1011</v>
       </c>
       <c r="H251" s="38" t="s">
         <v>246</v>
@@ -13363,7 +13965,7 @@
       <c r="J251" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K251" s="86">
+      <c r="K251" s="38">
         <v>1</v>
       </c>
       <c r="L251" s="61">
@@ -13390,7 +13992,7 @@
         <v>393</v>
       </c>
       <c r="G252" s="41" t="s">
-        <v>606</v>
+        <v>1012</v>
       </c>
       <c r="H252" s="38" t="s">
         <v>246</v>
@@ -13401,7 +14003,7 @@
       <c r="J252" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K252" s="86">
+      <c r="K252" s="38">
         <v>1</v>
       </c>
       <c r="L252" s="61">
@@ -13428,7 +14030,7 @@
         <v>393</v>
       </c>
       <c r="G253" s="41" t="s">
-        <v>463</v>
+        <v>1013</v>
       </c>
       <c r="H253" s="38" t="s">
         <v>246</v>
@@ -13439,7 +14041,7 @@
       <c r="J253" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K253" s="86">
+      <c r="K253" s="38">
         <v>1</v>
       </c>
       <c r="L253" s="61">
@@ -13466,7 +14068,7 @@
         <v>393</v>
       </c>
       <c r="G254" s="41" t="s">
-        <v>459</v>
+        <v>1014</v>
       </c>
       <c r="H254" s="38" t="s">
         <v>246</v>
@@ -13477,7 +14079,7 @@
       <c r="J254" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K254" s="86">
+      <c r="K254" s="38">
         <v>1</v>
       </c>
       <c r="L254" s="61">
@@ -13504,7 +14106,7 @@
         <v>393</v>
       </c>
       <c r="G255" s="41" t="s">
-        <v>465</v>
+        <v>1015</v>
       </c>
       <c r="H255" s="38" t="s">
         <v>246</v>
@@ -13515,7 +14117,7 @@
       <c r="J255" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K255" s="86">
+      <c r="K255" s="38">
         <v>1</v>
       </c>
       <c r="L255" s="61">
@@ -13542,7 +14144,7 @@
         <v>393</v>
       </c>
       <c r="G256" s="41" t="s">
-        <v>456</v>
+        <v>1016</v>
       </c>
       <c r="H256" s="38" t="s">
         <v>246</v>
@@ -13553,7 +14155,7 @@
       <c r="J256" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K256" s="86">
+      <c r="K256" s="38">
         <v>1</v>
       </c>
       <c r="L256" s="61">
@@ -13580,7 +14182,7 @@
         <v>393</v>
       </c>
       <c r="G257" s="41" t="s">
-        <v>457</v>
+        <v>1017</v>
       </c>
       <c r="H257" s="38" t="s">
         <v>246</v>
@@ -13591,7 +14193,7 @@
       <c r="J257" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K257" s="86">
+      <c r="K257" s="38">
         <v>1</v>
       </c>
       <c r="L257" s="61">
@@ -13600,7 +14202,7 @@
     </row>
     <row r="258" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="59" t="s">
-        <v>814</v>
+        <v>766</v>
       </c>
       <c r="B258" s="44" t="s">
         <v>742</v>
@@ -13645,7 +14247,7 @@
         <v>393</v>
       </c>
       <c r="G259" s="41" t="s">
-        <v>461</v>
+        <v>1018</v>
       </c>
       <c r="H259" s="38" t="s">
         <v>246</v>
@@ -13656,7 +14258,7 @@
       <c r="J259" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K259" s="86">
+      <c r="K259" s="38">
         <v>1</v>
       </c>
       <c r="L259" s="61">
@@ -13683,7 +14285,7 @@
         <v>393</v>
       </c>
       <c r="G260" s="41" t="s">
-        <v>524</v>
+        <v>1019</v>
       </c>
       <c r="H260" s="38" t="s">
         <v>246</v>
@@ -13694,7 +14296,7 @@
       <c r="J260" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K260" s="86">
+      <c r="K260" s="38">
         <v>1</v>
       </c>
       <c r="L260" s="61">
@@ -13703,7 +14305,7 @@
     </row>
     <row r="261" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="59" t="s">
-        <v>815</v>
+        <v>767</v>
       </c>
       <c r="B261" s="44" t="s">
         <v>743</v>
@@ -13748,7 +14350,7 @@
         <v>393</v>
       </c>
       <c r="G262" s="41" t="s">
-        <v>455</v>
+        <v>1020</v>
       </c>
       <c r="H262" s="38" t="s">
         <v>246</v>
@@ -13759,7 +14361,7 @@
       <c r="J262" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K262" s="86">
+      <c r="K262" s="38">
         <v>1</v>
       </c>
       <c r="L262" s="61">
@@ -13786,7 +14388,7 @@
         <v>393</v>
       </c>
       <c r="G263" s="41" t="s">
-        <v>522</v>
+        <v>1021</v>
       </c>
       <c r="H263" s="38" t="s">
         <v>246</v>
@@ -13797,7 +14399,7 @@
       <c r="J263" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K263" s="86">
+      <c r="K263" s="38">
         <v>1</v>
       </c>
       <c r="L263" s="61">
@@ -13808,13 +14410,13 @@
       <c r="A264" s="74">
         <v>256</v>
       </c>
-      <c r="B264" s="89" t="s">
-        <v>390</v>
-      </c>
-      <c r="C264" s="89" t="s">
+      <c r="B264" s="85" t="s">
+        <v>390</v>
+      </c>
+      <c r="C264" s="85" t="s">
         <v>723</v>
       </c>
-      <c r="D264" s="89" t="s">
+      <c r="D264" s="85" t="s">
         <v>723</v>
       </c>
       <c r="E264" s="75" t="s">
@@ -13823,8 +14425,8 @@
       <c r="F264" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="G264" s="75" t="s">
-        <v>704</v>
+      <c r="G264" s="41" t="s">
+        <v>1024</v>
       </c>
       <c r="H264" s="73" t="s">
         <v>246</v>
@@ -13841,11 +14443,11 @@
       <c r="L264" s="61">
         <v>254</v>
       </c>
-      <c r="M264" s="87"/>
+      <c r="M264" s="83"/>
     </row>
     <row r="265" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="59" t="s">
-        <v>816</v>
+        <v>768</v>
       </c>
       <c r="B265" s="44" t="s">
         <v>744</v>
@@ -13889,8 +14491,8 @@
       <c r="F266" s="77" t="s">
         <v>393</v>
       </c>
-      <c r="G266" s="77" t="s">
-        <v>489</v>
+      <c r="G266" s="41" t="s">
+        <v>1022</v>
       </c>
       <c r="H266" s="67" t="s">
         <v>246</v>
@@ -13901,7 +14503,7 @@
       <c r="J266" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="K266" s="86">
+      <c r="K266" s="38">
         <v>1</v>
       </c>
       <c r="L266" s="68">
@@ -13928,7 +14530,7 @@
         <v>393</v>
       </c>
       <c r="G267" s="41" t="s">
-        <v>416</v>
+        <v>1023</v>
       </c>
       <c r="H267" s="38" t="s">
         <v>246</v>
@@ -13939,7 +14541,7 @@
       <c r="J267" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K267" s="86">
+      <c r="K267" s="38">
         <v>1</v>
       </c>
       <c r="L267" s="68">
@@ -13948,7 +14550,7 @@
     </row>
     <row r="268" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="59" t="s">
-        <v>817</v>
+        <v>769</v>
       </c>
       <c r="B268" s="44" t="s">
         <v>744</v>
@@ -13993,7 +14595,7 @@
         <v>393</v>
       </c>
       <c r="G269" s="41" t="s">
-        <v>520</v>
+        <v>1024</v>
       </c>
       <c r="H269" s="38" t="s">
         <v>246</v>
@@ -14004,7 +14606,7 @@
       <c r="J269" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K269" s="86">
+      <c r="K269" s="38">
         <v>1</v>
       </c>
       <c r="L269" s="68">
@@ -14031,7 +14633,7 @@
         <v>393</v>
       </c>
       <c r="G270" s="41" t="s">
-        <v>454</v>
+        <v>1025</v>
       </c>
       <c r="H270" s="38" t="s">
         <v>246</v>
@@ -14042,7 +14644,7 @@
       <c r="J270" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K270" s="86">
+      <c r="K270" s="38">
         <v>1</v>
       </c>
       <c r="L270" s="68">
@@ -14069,7 +14671,7 @@
         <v>709</v>
       </c>
       <c r="G271" s="41" t="s">
-        <v>544</v>
+        <v>1026</v>
       </c>
       <c r="H271" s="38" t="s">
         <v>246</v>
@@ -14080,7 +14682,7 @@
       <c r="J271" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K271" s="86">
+      <c r="K271" s="38">
         <v>1</v>
       </c>
       <c r="L271" s="61">
@@ -14089,7 +14691,7 @@
     </row>
     <row r="272" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="59" t="s">
-        <v>818</v>
+        <v>770</v>
       </c>
       <c r="B272" s="44" t="s">
         <v>744</v>
@@ -14121,10 +14723,10 @@
       <c r="B273" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C273" s="90" t="s">
+      <c r="C273" s="86" t="s">
         <v>673</v>
       </c>
-      <c r="D273" s="90" t="s">
+      <c r="D273" s="86" t="s">
         <v>673</v>
       </c>
       <c r="E273" s="41" t="s">
@@ -14134,7 +14736,7 @@
         <v>709</v>
       </c>
       <c r="G273" s="41" t="s">
-        <v>700</v>
+        <v>1027</v>
       </c>
       <c r="H273" s="38" t="s">
         <v>246</v>
@@ -14145,7 +14747,7 @@
       <c r="J273" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K273" s="86">
+      <c r="K273" s="38">
         <v>1</v>
       </c>
       <c r="L273" s="68">
@@ -14159,10 +14761,10 @@
       <c r="B274" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C274" s="90" t="s">
+      <c r="C274" s="86" t="s">
         <v>675</v>
       </c>
-      <c r="D274" s="90" t="s">
+      <c r="D274" s="86" t="s">
         <v>675</v>
       </c>
       <c r="E274" s="41" t="s">
@@ -14172,7 +14774,7 @@
         <v>709</v>
       </c>
       <c r="G274" s="41" t="s">
-        <v>701</v>
+        <v>1028</v>
       </c>
       <c r="H274" s="38" t="s">
         <v>246</v>
@@ -14183,7 +14785,7 @@
       <c r="J274" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K274" s="86">
+      <c r="K274" s="38">
         <v>1</v>
       </c>
       <c r="L274" s="61">
@@ -14193,76 +14795,76 @@
   </sheetData>
   <autoFilter ref="A1:L50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="duplicateValues" dxfId="18" priority="387"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="387"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J84:J115 J148:J167 J262:J264 J266:J267 J269:J271 J273:J274 J52:J82 J169:J198 J222:J248">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+  <conditionalFormatting sqref="J3:J50">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J82 J84:J115 J148:J167 J169:J198 J222:J248 J262:J264 J266:J267 J269:J271 J273:J274">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J84:J115 J266:J267 J269:J271 J273:J274 J52:J82 J169:J198 J222:J248">
-    <cfRule type="cellIs" dxfId="14" priority="96" operator="equal">
+  <conditionalFormatting sqref="J52:J82 J84:J115 J266:J267 J269:J271 J222:J248 J273:J274 J169:J198">
+    <cfRule type="cellIs" dxfId="11" priority="96" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J117:J146 J200:J220">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J117:J146 J274 J222:J248">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+  <conditionalFormatting sqref="J117:J146 J222:J248 J274">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J250:J251">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J250:J257">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J259:J260 J253:J257 J84:J115 J266:J267 J269:J271 J52:J82">
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
+  <conditionalFormatting sqref="J259:J260 J253:J257 J52:J82 J84:J115 J266:J267 J269:J271">
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J259:J260">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J262:J263">
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J262:J264 J148:J167">
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J50">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16263,20 +16865,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="85"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="89"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="12">

--- a/src/test/resources/Run_Manager_Manual_Renewal.xlsx
+++ b/src/test/resources/Run_Manager_Manual_Renewal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287AAA2B-F621-4392-B401-3350E0C35EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A749E81-04E3-4E96-A69C-484228786B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="1030">
   <si>
     <t>P_Key</t>
   </si>
@@ -3261,6 +3261,9 @@
   </si>
   <si>
     <t>ManualRenewal_TC_210</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -3443,7 +3446,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3604,12 +3607,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3903,12 +3900,6 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3932,6 +3923,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4453,12 +4450,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B252" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="G278" sqref="G278"/>
+      <selection pane="bottomRight" activeCell="G276" sqref="G276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6449,13 +6446,13 @@
       <c r="A52" s="40">
         <v>49</v>
       </c>
-      <c r="B52" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="C52" s="83" t="s">
+      <c r="B52" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="C52" s="81" t="s">
         <v>732</v>
       </c>
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="81" t="s">
         <v>732</v>
       </c>
       <c r="E52" s="41" t="s">
@@ -6471,7 +6468,7 @@
         <v>246</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J52" s="42" t="s">
         <v>28</v>
@@ -6482,7 +6479,7 @@
       <c r="L52" s="68">
         <v>49</v>
       </c>
-      <c r="M52" s="83"/>
+      <c r="M52" s="81"/>
     </row>
     <row r="53" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
@@ -6510,7 +6507,7 @@
         <v>246</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J53" s="42" t="s">
         <v>28</v>
@@ -6548,7 +6545,7 @@
         <v>246</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J54" s="42" t="s">
         <v>28</v>
@@ -6586,7 +6583,7 @@
         <v>246</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J55" s="42" t="s">
         <v>28</v>
@@ -6624,7 +6621,7 @@
         <v>246</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J56" s="42" t="s">
         <v>28</v>
@@ -6662,7 +6659,7 @@
         <v>246</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J57" s="42" t="s">
         <v>28</v>
@@ -6700,7 +6697,7 @@
         <v>246</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J58" s="42" t="s">
         <v>28</v>
@@ -6738,7 +6735,7 @@
         <v>246</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J59" s="42" t="s">
         <v>28</v>
@@ -6776,7 +6773,7 @@
         <v>246</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J60" s="42" t="s">
         <v>28</v>
@@ -6814,7 +6811,7 @@
         <v>246</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J61" s="42" t="s">
         <v>28</v>
@@ -6852,7 +6849,7 @@
         <v>246</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J62" s="42" t="s">
         <v>28</v>
@@ -6890,7 +6887,7 @@
         <v>246</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J63" s="42" t="s">
         <v>28</v>
@@ -6928,7 +6925,7 @@
         <v>246</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J64" s="42" t="s">
         <v>28</v>
@@ -6966,7 +6963,7 @@
         <v>246</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J65" s="42" t="s">
         <v>28</v>
@@ -7004,7 +7001,7 @@
         <v>246</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J66" s="42" t="s">
         <v>28</v>
@@ -7042,7 +7039,7 @@
         <v>246</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J67" s="42" t="s">
         <v>28</v>
@@ -7080,7 +7077,7 @@
         <v>246</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J68" s="42" t="s">
         <v>28</v>
@@ -7118,7 +7115,7 @@
         <v>246</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J69" s="42" t="s">
         <v>28</v>
@@ -7156,7 +7153,7 @@
         <v>246</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J70" s="42" t="s">
         <v>28</v>
@@ -7194,7 +7191,7 @@
         <v>246</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J71" s="42" t="s">
         <v>28</v>
@@ -7232,7 +7229,7 @@
         <v>246</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J72" s="42" t="s">
         <v>28</v>
@@ -7270,7 +7267,7 @@
         <v>246</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J73" s="42" t="s">
         <v>28</v>
@@ -7308,7 +7305,7 @@
         <v>246</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J74" s="42" t="s">
         <v>28</v>
@@ -7346,7 +7343,7 @@
         <v>246</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J75" s="42" t="s">
         <v>28</v>
@@ -7384,7 +7381,7 @@
         <v>246</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J76" s="42" t="s">
         <v>28</v>
@@ -7422,7 +7419,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J77" s="42" t="s">
         <v>28</v>
@@ -7460,7 +7457,7 @@
         <v>246</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J78" s="42" t="s">
         <v>28</v>
@@ -7498,7 +7495,7 @@
         <v>246</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J79" s="42" t="s">
         <v>28</v>
@@ -7536,7 +7533,7 @@
         <v>246</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J80" s="42" t="s">
         <v>28</v>
@@ -7574,7 +7571,7 @@
         <v>246</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J81" s="42" t="s">
         <v>28</v>
@@ -7593,10 +7590,10 @@
       <c r="B82" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C82" s="83" t="s">
+      <c r="C82" s="81" t="s">
         <v>722</v>
       </c>
-      <c r="D82" s="83" t="s">
+      <c r="D82" s="81" t="s">
         <v>722</v>
       </c>
       <c r="E82" s="41" t="s">
@@ -7612,7 +7609,7 @@
         <v>246</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J82" s="42" t="s">
         <v>28</v>
@@ -7655,13 +7652,13 @@
       <c r="A84" s="40">
         <v>80</v>
       </c>
-      <c r="B84" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="C84" s="83" t="s">
+      <c r="B84" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="C84" s="81" t="s">
         <v>732</v>
       </c>
-      <c r="D84" s="83" t="s">
+      <c r="D84" s="81" t="s">
         <v>732</v>
       </c>
       <c r="E84" s="41" t="s">
@@ -7677,7 +7674,7 @@
         <v>246</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J84" s="42" t="s">
         <v>28</v>
@@ -7688,7 +7685,7 @@
       <c r="L84" s="68">
         <v>80</v>
       </c>
-      <c r="M84" s="83"/>
+      <c r="M84" s="81"/>
     </row>
     <row r="85" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
@@ -7716,7 +7713,7 @@
         <v>246</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J85" s="42" t="s">
         <v>28</v>
@@ -7754,7 +7751,7 @@
         <v>246</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J86" s="42" t="s">
         <v>28</v>
@@ -7792,7 +7789,7 @@
         <v>246</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J87" s="42" t="s">
         <v>28</v>
@@ -7830,7 +7827,7 @@
         <v>246</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J88" s="42" t="s">
         <v>28</v>
@@ -7868,7 +7865,7 @@
         <v>246</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J89" s="42" t="s">
         <v>28</v>
@@ -7906,7 +7903,7 @@
         <v>246</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J90" s="42" t="s">
         <v>28</v>
@@ -7944,7 +7941,7 @@
         <v>246</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J91" s="42" t="s">
         <v>28</v>
@@ -7982,7 +7979,7 @@
         <v>246</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J92" s="42" t="s">
         <v>28</v>
@@ -8020,7 +8017,7 @@
         <v>246</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J93" s="42" t="s">
         <v>28</v>
@@ -8058,7 +8055,7 @@
         <v>246</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J94" s="42" t="s">
         <v>28</v>
@@ -8096,7 +8093,7 @@
         <v>246</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J95" s="42" t="s">
         <v>28</v>
@@ -8134,7 +8131,7 @@
         <v>246</v>
       </c>
       <c r="I96" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J96" s="42" t="s">
         <v>28</v>
@@ -8172,7 +8169,7 @@
         <v>246</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J97" s="42" t="s">
         <v>28</v>
@@ -8210,7 +8207,7 @@
         <v>246</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J98" s="42" t="s">
         <v>28</v>
@@ -8248,7 +8245,7 @@
         <v>246</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J99" s="42" t="s">
         <v>28</v>
@@ -8286,7 +8283,7 @@
         <v>246</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J100" s="42" t="s">
         <v>28</v>
@@ -8324,7 +8321,7 @@
         <v>246</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J101" s="42" t="s">
         <v>28</v>
@@ -8362,7 +8359,7 @@
         <v>246</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J102" s="42" t="s">
         <v>28</v>
@@ -8400,7 +8397,7 @@
         <v>246</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J103" s="42" t="s">
         <v>28</v>
@@ -8438,7 +8435,7 @@
         <v>246</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J104" s="42" t="s">
         <v>28</v>
@@ -8476,7 +8473,7 @@
         <v>246</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J105" s="42" t="s">
         <v>28</v>
@@ -8514,7 +8511,7 @@
         <v>246</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J106" s="42" t="s">
         <v>28</v>
@@ -8552,7 +8549,7 @@
         <v>246</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J107" s="42" t="s">
         <v>28</v>
@@ -8590,7 +8587,7 @@
         <v>246</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J108" s="42" t="s">
         <v>28</v>
@@ -8628,7 +8625,7 @@
         <v>246</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J109" s="42" t="s">
         <v>28</v>
@@ -8666,7 +8663,7 @@
         <v>246</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J110" s="42" t="s">
         <v>28</v>
@@ -8704,7 +8701,7 @@
         <v>246</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J111" s="42" t="s">
         <v>28</v>
@@ -8742,7 +8739,7 @@
         <v>246</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J112" s="42" t="s">
         <v>28</v>
@@ -8780,7 +8777,7 @@
         <v>246</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J113" s="42" t="s">
         <v>28</v>
@@ -8818,7 +8815,7 @@
         <v>246</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J114" s="42" t="s">
         <v>28</v>
@@ -8856,7 +8853,7 @@
         <v>246</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J115" s="42" t="s">
         <v>28</v>
@@ -8899,13 +8896,13 @@
       <c r="A117" s="40">
         <v>112</v>
       </c>
-      <c r="B117" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="C117" s="83" t="s">
+      <c r="B117" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="C117" s="81" t="s">
         <v>732</v>
       </c>
-      <c r="D117" s="83" t="s">
+      <c r="D117" s="81" t="s">
         <v>732</v>
       </c>
       <c r="E117" s="41" t="s">
@@ -8921,7 +8918,7 @@
         <v>246</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J117" s="42" t="s">
         <v>28</v>
@@ -8932,7 +8929,7 @@
       <c r="L117" s="68">
         <v>112</v>
       </c>
-      <c r="M117" s="83"/>
+      <c r="M117" s="81"/>
     </row>
     <row r="118" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
@@ -8960,7 +8957,7 @@
         <v>246</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J118" s="42" t="s">
         <v>28</v>
@@ -8998,7 +8995,7 @@
         <v>246</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J119" s="42" t="s">
         <v>28</v>
@@ -9036,7 +9033,7 @@
         <v>246</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J120" s="42" t="s">
         <v>28</v>
@@ -9074,7 +9071,7 @@
         <v>246</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J121" s="42" t="s">
         <v>28</v>
@@ -9112,7 +9109,7 @@
         <v>246</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J122" s="42" t="s">
         <v>28</v>
@@ -9150,7 +9147,7 @@
         <v>246</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J123" s="42" t="s">
         <v>28</v>
@@ -9188,7 +9185,7 @@
         <v>246</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J124" s="42" t="s">
         <v>28</v>
@@ -9226,7 +9223,7 @@
         <v>246</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J125" s="42" t="s">
         <v>28</v>
@@ -9264,7 +9261,7 @@
         <v>246</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J126" s="42" t="s">
         <v>28</v>
@@ -9302,7 +9299,7 @@
         <v>246</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J127" s="42" t="s">
         <v>28</v>
@@ -9340,7 +9337,7 @@
         <v>246</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J128" s="42" t="s">
         <v>28</v>
@@ -9378,7 +9375,7 @@
         <v>246</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J129" s="42" t="s">
         <v>28</v>
@@ -9416,7 +9413,7 @@
         <v>246</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J130" s="42" t="s">
         <v>28</v>
@@ -9454,7 +9451,7 @@
         <v>246</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J131" s="42" t="s">
         <v>28</v>
@@ -9492,7 +9489,7 @@
         <v>246</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J132" s="42" t="s">
         <v>28</v>
@@ -9530,7 +9527,7 @@
         <v>246</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J133" s="42" t="s">
         <v>28</v>
@@ -9568,7 +9565,7 @@
         <v>246</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J134" s="42" t="s">
         <v>28</v>
@@ -9606,7 +9603,7 @@
         <v>246</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J135" s="42" t="s">
         <v>28</v>
@@ -9644,7 +9641,7 @@
         <v>246</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J136" s="42" t="s">
         <v>28</v>
@@ -9682,7 +9679,7 @@
         <v>246</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J137" s="42" t="s">
         <v>28</v>
@@ -9720,7 +9717,7 @@
         <v>246</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J138" s="42" t="s">
         <v>28</v>
@@ -9758,7 +9755,7 @@
         <v>246</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J139" s="42" t="s">
         <v>28</v>
@@ -9796,7 +9793,7 @@
         <v>246</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J140" s="42" t="s">
         <v>28</v>
@@ -9834,7 +9831,7 @@
         <v>246</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J141" s="42" t="s">
         <v>28</v>
@@ -9872,7 +9869,7 @@
         <v>246</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J142" s="42" t="s">
         <v>28</v>
@@ -9910,7 +9907,7 @@
         <v>246</v>
       </c>
       <c r="I143" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J143" s="42" t="s">
         <v>28</v>
@@ -9929,10 +9926,10 @@
       <c r="B144" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C144" s="80" t="s">
+      <c r="C144" s="88" t="s">
         <v>746</v>
       </c>
-      <c r="D144" s="80" t="s">
+      <c r="D144" s="88" t="s">
         <v>746</v>
       </c>
       <c r="E144" s="41" t="s">
@@ -9948,7 +9945,7 @@
         <v>246</v>
       </c>
       <c r="I144" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J144" s="42" t="s">
         <v>28</v>
@@ -9967,10 +9964,10 @@
       <c r="B145" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C145" s="81" t="s">
+      <c r="C145" s="89" t="s">
         <v>747</v>
       </c>
-      <c r="D145" s="81" t="s">
+      <c r="D145" s="89" t="s">
         <v>747</v>
       </c>
       <c r="E145" s="41" t="s">
@@ -9986,7 +9983,7 @@
         <v>246</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J145" s="42" t="s">
         <v>28</v>
@@ -10024,7 +10021,7 @@
         <v>246</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J146" s="42" t="s">
         <v>28</v>
@@ -10089,7 +10086,7 @@
         <v>246</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J148" s="42" t="s">
         <v>28</v>
@@ -10127,7 +10124,7 @@
         <v>246</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J149" s="42" t="s">
         <v>28</v>
@@ -10165,7 +10162,7 @@
         <v>246</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J150" s="42" t="s">
         <v>28</v>
@@ -10203,7 +10200,7 @@
         <v>246</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J151" s="42" t="s">
         <v>28</v>
@@ -10241,7 +10238,7 @@
         <v>246</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J152" s="42" t="s">
         <v>28</v>
@@ -10279,7 +10276,7 @@
         <v>246</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J153" s="42" t="s">
         <v>28</v>
@@ -10317,7 +10314,7 @@
         <v>246</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J154" s="42" t="s">
         <v>28</v>
@@ -10355,7 +10352,7 @@
         <v>246</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J155" s="42" t="s">
         <v>28</v>
@@ -10393,7 +10390,7 @@
         <v>246</v>
       </c>
       <c r="I156" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J156" s="42" t="s">
         <v>28</v>
@@ -10431,7 +10428,7 @@
         <v>246</v>
       </c>
       <c r="I157" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J157" s="42" t="s">
         <v>28</v>
@@ -10469,7 +10466,7 @@
         <v>246</v>
       </c>
       <c r="I158" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J158" s="42" t="s">
         <v>28</v>
@@ -10507,7 +10504,7 @@
         <v>246</v>
       </c>
       <c r="I159" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J159" s="42" t="s">
         <v>28</v>
@@ -10545,7 +10542,7 @@
         <v>246</v>
       </c>
       <c r="I160" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J160" s="42" t="s">
         <v>28</v>
@@ -10583,7 +10580,7 @@
         <v>246</v>
       </c>
       <c r="I161" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J161" s="42" t="s">
         <v>28</v>
@@ -10621,7 +10618,7 @@
         <v>246</v>
       </c>
       <c r="I162" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J162" s="42" t="s">
         <v>28</v>
@@ -10659,7 +10656,7 @@
         <v>246</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J163" s="42" t="s">
         <v>28</v>
@@ -10697,7 +10694,7 @@
         <v>246</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J164" s="42" t="s">
         <v>28</v>
@@ -10735,7 +10732,7 @@
         <v>246</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J165" s="42" t="s">
         <v>28</v>
@@ -10773,7 +10770,7 @@
         <v>246</v>
       </c>
       <c r="I166" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J166" s="42" t="s">
         <v>28</v>
@@ -10811,7 +10808,7 @@
         <v>246</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J167" s="42" t="s">
         <v>28</v>
@@ -10876,7 +10873,7 @@
         <v>246</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J169" s="42" t="s">
         <v>28</v>
@@ -10914,7 +10911,7 @@
         <v>246</v>
       </c>
       <c r="I170" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J170" s="42" t="s">
         <v>28</v>
@@ -10952,7 +10949,7 @@
         <v>246</v>
       </c>
       <c r="I171" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J171" s="42" t="s">
         <v>28</v>
@@ -10990,7 +10987,7 @@
         <v>246</v>
       </c>
       <c r="I172" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J172" s="42" t="s">
         <v>28</v>
@@ -11028,7 +11025,7 @@
         <v>246</v>
       </c>
       <c r="I173" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J173" s="42" t="s">
         <v>28</v>
@@ -11066,7 +11063,7 @@
         <v>246</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J174" s="42" t="s">
         <v>28</v>
@@ -11104,7 +11101,7 @@
         <v>246</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J175" s="42" t="s">
         <v>28</v>
@@ -11142,7 +11139,7 @@
         <v>246</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J176" s="42" t="s">
         <v>28</v>
@@ -11180,7 +11177,7 @@
         <v>246</v>
       </c>
       <c r="I177" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J177" s="42" t="s">
         <v>28</v>
@@ -11218,7 +11215,7 @@
         <v>246</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J178" s="42" t="s">
         <v>28</v>
@@ -11256,7 +11253,7 @@
         <v>246</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J179" s="42" t="s">
         <v>28</v>
@@ -11294,7 +11291,7 @@
         <v>246</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J180" s="42" t="s">
         <v>28</v>
@@ -11332,7 +11329,7 @@
         <v>246</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J181" s="42" t="s">
         <v>28</v>
@@ -11370,7 +11367,7 @@
         <v>246</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J182" s="42" t="s">
         <v>28</v>
@@ -11408,7 +11405,7 @@
         <v>246</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J183" s="42" t="s">
         <v>28</v>
@@ -11446,7 +11443,7 @@
         <v>246</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J184" s="42" t="s">
         <v>28</v>
@@ -11484,7 +11481,7 @@
         <v>246</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J185" s="42" t="s">
         <v>28</v>
@@ -11522,7 +11519,7 @@
         <v>246</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J186" s="42" t="s">
         <v>28</v>
@@ -11560,7 +11557,7 @@
         <v>246</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J187" s="42" t="s">
         <v>28</v>
@@ -11598,7 +11595,7 @@
         <v>246</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J188" s="42" t="s">
         <v>28</v>
@@ -11636,7 +11633,7 @@
         <v>246</v>
       </c>
       <c r="I189" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J189" s="42" t="s">
         <v>28</v>
@@ -11674,7 +11671,7 @@
         <v>246</v>
       </c>
       <c r="I190" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J190" s="42" t="s">
         <v>28</v>
@@ -11712,7 +11709,7 @@
         <v>246</v>
       </c>
       <c r="I191" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J191" s="42" t="s">
         <v>28</v>
@@ -11750,7 +11747,7 @@
         <v>246</v>
       </c>
       <c r="I192" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J192" s="42" t="s">
         <v>28</v>
@@ -11788,7 +11785,7 @@
         <v>246</v>
       </c>
       <c r="I193" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J193" s="42" t="s">
         <v>28</v>
@@ -11826,7 +11823,7 @@
         <v>246</v>
       </c>
       <c r="I194" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J194" s="42" t="s">
         <v>28</v>
@@ -11864,7 +11861,7 @@
         <v>246</v>
       </c>
       <c r="I195" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J195" s="42" t="s">
         <v>28</v>
@@ -11902,7 +11899,7 @@
         <v>246</v>
       </c>
       <c r="I196" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J196" s="42" t="s">
         <v>28</v>
@@ -11940,7 +11937,7 @@
         <v>246</v>
       </c>
       <c r="I197" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J197" s="42" t="s">
         <v>28</v>
@@ -11978,7 +11975,7 @@
         <v>246</v>
       </c>
       <c r="I198" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J198" s="42" t="s">
         <v>28</v>
@@ -12043,7 +12040,7 @@
         <v>246</v>
       </c>
       <c r="I200" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J200" s="42" t="s">
         <v>28</v>
@@ -12081,7 +12078,7 @@
         <v>246</v>
       </c>
       <c r="I201" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J201" s="42" t="s">
         <v>28</v>
@@ -12119,7 +12116,7 @@
         <v>246</v>
       </c>
       <c r="I202" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J202" s="42" t="s">
         <v>28</v>
@@ -12157,7 +12154,7 @@
         <v>246</v>
       </c>
       <c r="I203" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J203" s="42" t="s">
         <v>28</v>
@@ -12195,7 +12192,7 @@
         <v>246</v>
       </c>
       <c r="I204" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J204" s="42" t="s">
         <v>28</v>
@@ -12233,7 +12230,7 @@
         <v>246</v>
       </c>
       <c r="I205" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J205" s="42" t="s">
         <v>28</v>
@@ -12271,7 +12268,7 @@
         <v>246</v>
       </c>
       <c r="I206" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J206" s="42" t="s">
         <v>28</v>
@@ -12309,7 +12306,7 @@
         <v>246</v>
       </c>
       <c r="I207" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J207" s="42" t="s">
         <v>28</v>
@@ -12347,7 +12344,7 @@
         <v>246</v>
       </c>
       <c r="I208" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J208" s="42" t="s">
         <v>28</v>
@@ -12385,7 +12382,7 @@
         <v>246</v>
       </c>
       <c r="I209" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J209" s="42" t="s">
         <v>28</v>
@@ -12423,7 +12420,7 @@
         <v>246</v>
       </c>
       <c r="I210" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J210" s="42" t="s">
         <v>28</v>
@@ -12461,7 +12458,7 @@
         <v>246</v>
       </c>
       <c r="I211" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J211" s="42" t="s">
         <v>28</v>
@@ -12499,7 +12496,7 @@
         <v>246</v>
       </c>
       <c r="I212" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J212" s="42" t="s">
         <v>28</v>
@@ -12537,7 +12534,7 @@
         <v>246</v>
       </c>
       <c r="I213" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J213" s="42" t="s">
         <v>28</v>
@@ -12575,7 +12572,7 @@
         <v>246</v>
       </c>
       <c r="I214" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J214" s="42" t="s">
         <v>28</v>
@@ -12613,7 +12610,7 @@
         <v>246</v>
       </c>
       <c r="I215" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J215" s="42" t="s">
         <v>28</v>
@@ -12651,7 +12648,7 @@
         <v>246</v>
       </c>
       <c r="I216" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J216" s="42" t="s">
         <v>28</v>
@@ -12689,7 +12686,7 @@
         <v>246</v>
       </c>
       <c r="I217" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J217" s="42" t="s">
         <v>28</v>
@@ -12727,7 +12724,7 @@
         <v>246</v>
       </c>
       <c r="I218" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J218" s="42" t="s">
         <v>28</v>
@@ -12765,7 +12762,7 @@
         <v>246</v>
       </c>
       <c r="I219" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J219" s="42" t="s">
         <v>28</v>
@@ -12803,7 +12800,7 @@
         <v>246</v>
       </c>
       <c r="I220" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J220" s="42" t="s">
         <v>28</v>
@@ -12849,10 +12846,10 @@
       <c r="B222" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C222" s="84" t="s">
+      <c r="C222" s="82" t="s">
         <v>712</v>
       </c>
-      <c r="D222" s="84" t="s">
+      <c r="D222" s="82" t="s">
         <v>712</v>
       </c>
       <c r="E222" s="41" t="s">
@@ -12868,7 +12865,7 @@
         <v>246</v>
       </c>
       <c r="I222" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J222" s="42" t="s">
         <v>28</v>
@@ -12887,10 +12884,10 @@
       <c r="B223" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C223" s="84" t="s">
+      <c r="C223" s="82" t="s">
         <v>713</v>
       </c>
-      <c r="D223" s="84" t="s">
+      <c r="D223" s="82" t="s">
         <v>713</v>
       </c>
       <c r="E223" s="41" t="s">
@@ -12906,7 +12903,7 @@
         <v>246</v>
       </c>
       <c r="I223" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J223" s="42" t="s">
         <v>28</v>
@@ -12925,10 +12922,10 @@
       <c r="B224" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C224" s="84" t="s">
+      <c r="C224" s="82" t="s">
         <v>715</v>
       </c>
-      <c r="D224" s="84" t="s">
+      <c r="D224" s="82" t="s">
         <v>715</v>
       </c>
       <c r="E224" s="41" t="s">
@@ -12944,7 +12941,7 @@
         <v>246</v>
       </c>
       <c r="I224" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J224" s="42" t="s">
         <v>28</v>
@@ -12963,10 +12960,10 @@
       <c r="B225" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C225" s="84" t="s">
+      <c r="C225" s="82" t="s">
         <v>716</v>
       </c>
-      <c r="D225" s="84" t="s">
+      <c r="D225" s="82" t="s">
         <v>716</v>
       </c>
       <c r="E225" s="41" t="s">
@@ -12982,7 +12979,7 @@
         <v>246</v>
       </c>
       <c r="I225" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J225" s="42" t="s">
         <v>28</v>
@@ -13001,10 +12998,10 @@
       <c r="B226" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C226" s="84" t="s">
+      <c r="C226" s="82" t="s">
         <v>575</v>
       </c>
-      <c r="D226" s="84" t="s">
+      <c r="D226" s="82" t="s">
         <v>575</v>
       </c>
       <c r="E226" s="41" t="s">
@@ -13020,7 +13017,7 @@
         <v>246</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J226" s="42" t="s">
         <v>28</v>
@@ -13039,10 +13036,10 @@
       <c r="B227" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C227" s="84" t="s">
+      <c r="C227" s="82" t="s">
         <v>577</v>
       </c>
-      <c r="D227" s="84" t="s">
+      <c r="D227" s="82" t="s">
         <v>577</v>
       </c>
       <c r="E227" s="41" t="s">
@@ -13058,7 +13055,7 @@
         <v>246</v>
       </c>
       <c r="I227" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J227" s="42" t="s">
         <v>28</v>
@@ -13077,10 +13074,10 @@
       <c r="B228" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C228" s="84" t="s">
+      <c r="C228" s="82" t="s">
         <v>613</v>
       </c>
-      <c r="D228" s="84" t="s">
+      <c r="D228" s="82" t="s">
         <v>613</v>
       </c>
       <c r="E228" s="41" t="s">
@@ -13096,7 +13093,7 @@
         <v>246</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J228" s="42" t="s">
         <v>28</v>
@@ -13115,10 +13112,10 @@
       <c r="B229" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C229" s="84" t="s">
+      <c r="C229" s="82" t="s">
         <v>615</v>
       </c>
-      <c r="D229" s="84" t="s">
+      <c r="D229" s="82" t="s">
         <v>734</v>
       </c>
       <c r="E229" s="41" t="s">
@@ -13134,7 +13131,7 @@
         <v>246</v>
       </c>
       <c r="I229" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J229" s="42" t="s">
         <v>28</v>
@@ -13153,10 +13150,10 @@
       <c r="B230" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C230" s="84" t="s">
+      <c r="C230" s="82" t="s">
         <v>617</v>
       </c>
-      <c r="D230" s="84" t="s">
+      <c r="D230" s="82" t="s">
         <v>617</v>
       </c>
       <c r="E230" s="41" t="s">
@@ -13172,7 +13169,7 @@
         <v>246</v>
       </c>
       <c r="I230" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J230" s="42" t="s">
         <v>28</v>
@@ -13191,10 +13188,10 @@
       <c r="B231" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C231" s="84" t="s">
+      <c r="C231" s="82" t="s">
         <v>619</v>
       </c>
-      <c r="D231" s="84" t="s">
+      <c r="D231" s="82" t="s">
         <v>619</v>
       </c>
       <c r="E231" s="41" t="s">
@@ -13210,7 +13207,7 @@
         <v>246</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J231" s="42" t="s">
         <v>28</v>
@@ -13229,10 +13226,10 @@
       <c r="B232" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C232" s="84" t="s">
+      <c r="C232" s="82" t="s">
         <v>621</v>
       </c>
-      <c r="D232" s="84" t="s">
+      <c r="D232" s="82" t="s">
         <v>621</v>
       </c>
       <c r="E232" s="41" t="s">
@@ -13248,7 +13245,7 @@
         <v>246</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J232" s="42" t="s">
         <v>28</v>
@@ -13267,10 +13264,10 @@
       <c r="B233" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C233" s="84" t="s">
+      <c r="C233" s="82" t="s">
         <v>623</v>
       </c>
-      <c r="D233" s="84" t="s">
+      <c r="D233" s="82" t="s">
         <v>623</v>
       </c>
       <c r="E233" s="41" t="s">
@@ -13286,7 +13283,7 @@
         <v>246</v>
       </c>
       <c r="I233" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J233" s="42" t="s">
         <v>28</v>
@@ -13305,10 +13302,10 @@
       <c r="B234" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C234" s="84" t="s">
+      <c r="C234" s="82" t="s">
         <v>625</v>
       </c>
-      <c r="D234" s="84" t="s">
+      <c r="D234" s="82" t="s">
         <v>625</v>
       </c>
       <c r="E234" s="41" t="s">
@@ -13324,7 +13321,7 @@
         <v>246</v>
       </c>
       <c r="I234" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J234" s="42" t="s">
         <v>28</v>
@@ -13343,10 +13340,10 @@
       <c r="B235" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C235" s="84" t="s">
+      <c r="C235" s="82" t="s">
         <v>627</v>
       </c>
-      <c r="D235" s="84" t="s">
+      <c r="D235" s="82" t="s">
         <v>627</v>
       </c>
       <c r="E235" s="41" t="s">
@@ -13362,7 +13359,7 @@
         <v>246</v>
       </c>
       <c r="I235" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J235" s="42" t="s">
         <v>28</v>
@@ -13400,7 +13397,7 @@
         <v>246</v>
       </c>
       <c r="I236" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J236" s="42" t="s">
         <v>28</v>
@@ -13419,10 +13416,10 @@
       <c r="B237" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C237" s="84" t="s">
+      <c r="C237" s="82" t="s">
         <v>631</v>
       </c>
-      <c r="D237" s="84" t="s">
+      <c r="D237" s="82" t="s">
         <v>631</v>
       </c>
       <c r="E237" s="41" t="s">
@@ -13438,7 +13435,7 @@
         <v>246</v>
       </c>
       <c r="I237" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J237" s="42" t="s">
         <v>28</v>
@@ -13457,10 +13454,10 @@
       <c r="B238" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C238" s="84" t="s">
+      <c r="C238" s="82" t="s">
         <v>717</v>
       </c>
-      <c r="D238" s="84" t="s">
+      <c r="D238" s="82" t="s">
         <v>717</v>
       </c>
       <c r="E238" s="41" t="s">
@@ -13476,7 +13473,7 @@
         <v>246</v>
       </c>
       <c r="I238" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J238" s="42" t="s">
         <v>28</v>
@@ -13495,10 +13492,10 @@
       <c r="B239" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C239" s="84" t="s">
+      <c r="C239" s="82" t="s">
         <v>641</v>
       </c>
-      <c r="D239" s="84" t="s">
+      <c r="D239" s="82" t="s">
         <v>641</v>
       </c>
       <c r="E239" s="41" t="s">
@@ -13514,7 +13511,7 @@
         <v>246</v>
       </c>
       <c r="I239" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J239" s="42" t="s">
         <v>28</v>
@@ -13533,10 +13530,10 @@
       <c r="B240" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C240" s="84" t="s">
+      <c r="C240" s="82" t="s">
         <v>643</v>
       </c>
-      <c r="D240" s="84" t="s">
+      <c r="D240" s="82" t="s">
         <v>643</v>
       </c>
       <c r="E240" s="41" t="s">
@@ -13552,7 +13549,7 @@
         <v>246</v>
       </c>
       <c r="I240" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J240" s="42" t="s">
         <v>28</v>
@@ -13571,10 +13568,10 @@
       <c r="B241" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C241" s="84" t="s">
+      <c r="C241" s="82" t="s">
         <v>645</v>
       </c>
-      <c r="D241" s="84" t="s">
+      <c r="D241" s="82" t="s">
         <v>645</v>
       </c>
       <c r="E241" s="41" t="s">
@@ -13590,7 +13587,7 @@
         <v>246</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J241" s="42" t="s">
         <v>28</v>
@@ -13609,10 +13606,10 @@
       <c r="B242" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C242" s="84" t="s">
+      <c r="C242" s="82" t="s">
         <v>718</v>
       </c>
-      <c r="D242" s="84" t="s">
+      <c r="D242" s="82" t="s">
         <v>718</v>
       </c>
       <c r="E242" s="41" t="s">
@@ -13628,7 +13625,7 @@
         <v>246</v>
       </c>
       <c r="I242" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J242" s="42" t="s">
         <v>28</v>
@@ -13647,7 +13644,7 @@
       <c r="B243" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C243" s="84" t="s">
+      <c r="C243" s="82" t="s">
         <v>719</v>
       </c>
       <c r="D243" s="56" t="s">
@@ -13666,7 +13663,7 @@
         <v>246</v>
       </c>
       <c r="I243" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J243" s="42" t="s">
         <v>28</v>
@@ -13685,10 +13682,10 @@
       <c r="B244" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C244" s="84" t="s">
+      <c r="C244" s="82" t="s">
         <v>601</v>
       </c>
-      <c r="D244" s="84" t="s">
+      <c r="D244" s="82" t="s">
         <v>601</v>
       </c>
       <c r="E244" s="41" t="s">
@@ -13704,7 +13701,7 @@
         <v>246</v>
       </c>
       <c r="I244" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J244" s="42" t="s">
         <v>28</v>
@@ -13723,10 +13720,10 @@
       <c r="B245" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C245" s="84" t="s">
+      <c r="C245" s="82" t="s">
         <v>714</v>
       </c>
-      <c r="D245" s="84" t="s">
+      <c r="D245" s="82" t="s">
         <v>714</v>
       </c>
       <c r="E245" s="41" t="s">
@@ -13742,7 +13739,7 @@
         <v>246</v>
       </c>
       <c r="I245" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J245" s="42" t="s">
         <v>28</v>
@@ -13761,10 +13758,10 @@
       <c r="B246" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C246" s="84" t="s">
+      <c r="C246" s="82" t="s">
         <v>605</v>
       </c>
-      <c r="D246" s="84" t="s">
+      <c r="D246" s="82" t="s">
         <v>605</v>
       </c>
       <c r="E246" s="41" t="s">
@@ -13780,7 +13777,7 @@
         <v>246</v>
       </c>
       <c r="I246" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J246" s="42" t="s">
         <v>28</v>
@@ -13799,10 +13796,10 @@
       <c r="B247" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C247" s="83" t="s">
+      <c r="C247" s="81" t="s">
         <v>720</v>
       </c>
-      <c r="D247" s="83" t="s">
+      <c r="D247" s="81" t="s">
         <v>720</v>
       </c>
       <c r="E247" s="41" t="s">
@@ -13818,7 +13815,7 @@
         <v>246</v>
       </c>
       <c r="I247" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J247" s="42" t="s">
         <v>28</v>
@@ -13837,10 +13834,10 @@
       <c r="B248" s="69" t="s">
         <v>390</v>
       </c>
-      <c r="C248" s="83" t="s">
+      <c r="C248" s="81" t="s">
         <v>721</v>
       </c>
-      <c r="D248" s="83" t="s">
+      <c r="D248" s="81" t="s">
         <v>721</v>
       </c>
       <c r="E248" s="77" t="s">
@@ -13855,8 +13852,8 @@
       <c r="H248" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="I248" s="67" t="s">
-        <v>15</v>
+      <c r="I248" s="38" t="s">
+        <v>1029</v>
       </c>
       <c r="J248" s="42" t="s">
         <v>28</v>
@@ -13899,13 +13896,13 @@
       <c r="A250" s="40">
         <v>240</v>
       </c>
-      <c r="B250" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="C250" s="83" t="s">
+      <c r="B250" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="C250" s="81" t="s">
         <v>732</v>
       </c>
-      <c r="D250" s="83" t="s">
+      <c r="D250" s="81" t="s">
         <v>732</v>
       </c>
       <c r="E250" s="41" t="s">
@@ -13921,7 +13918,7 @@
         <v>246</v>
       </c>
       <c r="I250" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J250" s="42" t="s">
         <v>28</v>
@@ -13932,7 +13929,7 @@
       <c r="L250" s="61">
         <v>240</v>
       </c>
-      <c r="M250" s="83"/>
+      <c r="M250" s="81"/>
     </row>
     <row r="251" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
@@ -13960,7 +13957,7 @@
         <v>246</v>
       </c>
       <c r="I251" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J251" s="42" t="s">
         <v>28</v>
@@ -13998,7 +13995,7 @@
         <v>246</v>
       </c>
       <c r="I252" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J252" s="42" t="s">
         <v>28</v>
@@ -14036,7 +14033,7 @@
         <v>246</v>
       </c>
       <c r="I253" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J253" s="42" t="s">
         <v>28</v>
@@ -14074,7 +14071,7 @@
         <v>246</v>
       </c>
       <c r="I254" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J254" s="42" t="s">
         <v>28</v>
@@ -14112,7 +14109,7 @@
         <v>246</v>
       </c>
       <c r="I255" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J255" s="42" t="s">
         <v>28</v>
@@ -14150,7 +14147,7 @@
         <v>246</v>
       </c>
       <c r="I256" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J256" s="42" t="s">
         <v>28</v>
@@ -14188,7 +14185,7 @@
         <v>246</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J257" s="42" t="s">
         <v>28</v>
@@ -14253,7 +14250,7 @@
         <v>246</v>
       </c>
       <c r="I259" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J259" s="42" t="s">
         <v>28</v>
@@ -14291,7 +14288,7 @@
         <v>246</v>
       </c>
       <c r="I260" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J260" s="42" t="s">
         <v>28</v>
@@ -14337,10 +14334,10 @@
       <c r="B262" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C262" s="82" t="s">
+      <c r="C262" s="80" t="s">
         <v>748</v>
       </c>
-      <c r="D262" s="82" t="s">
+      <c r="D262" s="80" t="s">
         <v>748</v>
       </c>
       <c r="E262" s="41" t="s">
@@ -14356,7 +14353,7 @@
         <v>246</v>
       </c>
       <c r="I262" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J262" s="42" t="s">
         <v>28</v>
@@ -14394,7 +14391,7 @@
         <v>246</v>
       </c>
       <c r="I263" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J263" s="42" t="s">
         <v>28</v>
@@ -14410,13 +14407,13 @@
       <c r="A264" s="74">
         <v>256</v>
       </c>
-      <c r="B264" s="85" t="s">
-        <v>390</v>
-      </c>
-      <c r="C264" s="85" t="s">
+      <c r="B264" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="C264" s="83" t="s">
         <v>723</v>
       </c>
-      <c r="D264" s="85" t="s">
+      <c r="D264" s="83" t="s">
         <v>723</v>
       </c>
       <c r="E264" s="75" t="s">
@@ -14443,7 +14440,7 @@
       <c r="L264" s="61">
         <v>254</v>
       </c>
-      <c r="M264" s="83"/>
+      <c r="M264" s="81"/>
     </row>
     <row r="265" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="59" t="s">
@@ -14497,8 +14494,8 @@
       <c r="H266" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="I266" s="67" t="s">
-        <v>15</v>
+      <c r="I266" s="38" t="s">
+        <v>1029</v>
       </c>
       <c r="J266" s="67" t="s">
         <v>28</v>
@@ -14536,7 +14533,7 @@
         <v>246</v>
       </c>
       <c r="I267" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J267" s="42" t="s">
         <v>28</v>
@@ -14601,7 +14598,7 @@
         <v>246</v>
       </c>
       <c r="I269" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J269" s="42" t="s">
         <v>28</v>
@@ -14639,7 +14636,7 @@
         <v>246</v>
       </c>
       <c r="I270" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J270" s="42" t="s">
         <v>28</v>
@@ -14677,7 +14674,7 @@
         <v>246</v>
       </c>
       <c r="I271" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J271" s="42" t="s">
         <v>28</v>
@@ -14723,10 +14720,10 @@
       <c r="B273" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C273" s="86" t="s">
+      <c r="C273" s="84" t="s">
         <v>673</v>
       </c>
-      <c r="D273" s="86" t="s">
+      <c r="D273" s="84" t="s">
         <v>673</v>
       </c>
       <c r="E273" s="41" t="s">
@@ -14742,7 +14739,7 @@
         <v>246</v>
       </c>
       <c r="I273" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J273" s="42" t="s">
         <v>28</v>
@@ -14761,10 +14758,10 @@
       <c r="B274" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="C274" s="86" t="s">
+      <c r="C274" s="84" t="s">
         <v>675</v>
       </c>
-      <c r="D274" s="86" t="s">
+      <c r="D274" s="84" t="s">
         <v>675</v>
       </c>
       <c r="E274" s="41" t="s">
@@ -14780,7 +14777,7 @@
         <v>246</v>
       </c>
       <c r="I274" s="38" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="J274" s="42" t="s">
         <v>28</v>
@@ -16865,20 +16862,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="89"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="87"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
